--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_10_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_10_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1425802.062092775</v>
+        <v>1425065.078877918</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12349591.86220126</v>
+        <v>12349591.86220127</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>588510.0917040054</v>
+        <v>588510.0917040051</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7514445.603828828</v>
+        <v>7514445.603828826</v>
       </c>
     </row>
     <row r="11">
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>60.65734542822378</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -721,13 +721,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>351.0450577899479</v>
       </c>
     </row>
     <row r="3">
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>80.51100496435802</v>
+        <v>80.51100496435825</v>
       </c>
       <c r="T3" t="n">
         <v>140.4611363452985</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>16.97729986519449</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>36.09085704695917</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>70.16151981325301</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>208.3144536241736</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,19 +1062,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>67.08171423916119</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>17.38587269543343</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
@@ -1144,7 +1144,7 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>0.2956717864458369</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>159.447041479854</v>
+        <v>95.41665766949525</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1293,25 +1293,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>94.73608632623439</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0.6985949741053196</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1359,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068501</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
@@ -1429,7 +1429,7 @@
         <v>255.7658798578267</v>
       </c>
       <c r="V11" t="n">
-        <v>353.9145207250146</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31.9354188153685</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5636707340529</v>
       </c>
       <c r="H13" t="n">
         <v>142.0850946195193</v>
       </c>
       <c r="I13" t="n">
-        <v>97.84676948106851</v>
+        <v>51.8171091073934</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>45.18652724828859</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>167.8981695558921</v>
@@ -1596,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2271661398842</v>
+        <v>400.2271661398822</v>
       </c>
       <c r="H14" t="n">
         <v>294.1881112878361</v>
       </c>
       <c r="I14" t="n">
-        <v>31.90683860482039</v>
+        <v>31.9068386048206</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1767,19 +1767,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5636707340529</v>
       </c>
       <c r="H16" t="n">
         <v>142.0850946195193</v>
@@ -1815,16 +1815,16 @@
         <v>45.18652724828859</v>
       </c>
       <c r="S16" t="n">
-        <v>167.8981695558921</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>198.6843141995716</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>277.3809278724447</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>264.5242295107573</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1833,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1897,7 +1897,7 @@
         <v>101.762548764523</v>
       </c>
       <c r="T17" t="n">
-        <v>218.416431777981</v>
+        <v>218.4164317779812</v>
       </c>
       <c r="U17" t="n">
         <v>255.7658798578267</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2013,16 +2013,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>107.2114781205934</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5636707340529</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.0850946195193</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>97.84676948106851</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>45.18652724828859</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>167.8981695558921</v>
       </c>
       <c r="T19" t="n">
-        <v>240.7746564864595</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3809278724447</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>179.7544691742278</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2137,7 +2137,7 @@
         <v>218.416431777981</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7658798578267</v>
+        <v>255.7658798578269</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>107.1939311752155</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5636707340529</v>
+        <v>6.068384612266556</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.0850946195193</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>97.84676948106851</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>45.18652724828859</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>167.8981695558921</v>
@@ -2298,7 +2298,7 @@
         <v>277.3809278724447</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2374,7 +2374,7 @@
         <v>218.416431777981</v>
       </c>
       <c r="U23" t="n">
-        <v>255.7658798578267</v>
+        <v>255.7658798578269</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>83.49329288432342</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5636707340529</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.0850946195193</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>97.84676948106851</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>45.18652724828859</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>167.8981695558921</v>
       </c>
       <c r="T25" t="n">
-        <v>240.7746564864595</v>
+        <v>24.8613369585702</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3809278724447</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2715,7 +2715,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -2724,13 +2724,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>128.5534925153749</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5636707340529</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.0850946195193</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>45.18652724828859</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>167.8981695558921</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.7746564864595</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>277.3809278724447</v>
@@ -2778,10 +2778,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>167.6546590296776</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,10 +2797,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068511</v>
       </c>
       <c r="E29" t="n">
-        <v>421.7171704536231</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
@@ -2958,19 +2958,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5636707340529</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>97.84676948106851</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>45.18652724828859</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>167.8981695558921</v>
@@ -3006,7 +3006,7 @@
         <v>240.7746564864595</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3809278724447</v>
+        <v>229.7642285088638</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3015,10 +3015,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>180.0690978702392</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3082,7 +3082,7 @@
         <v>101.762548764523</v>
       </c>
       <c r="T32" t="n">
-        <v>218.416431777981</v>
+        <v>218.4164317779817</v>
       </c>
       <c r="U32" t="n">
         <v>255.7658798578267</v>
@@ -3192,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>83.49329288432342</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>68.08962051243468</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>97.84676948106851</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>45.18652724828859</v>
       </c>
       <c r="S34" t="n">
-        <v>167.8981695558921</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.7746564864595</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>277.3809278724447</v>
@@ -3280,13 +3280,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2271661398822</v>
+        <v>400.2271661398823</v>
       </c>
       <c r="H35" t="n">
         <v>294.1881112878361</v>
       </c>
       <c r="I35" t="n">
-        <v>31.90683860482039</v>
+        <v>31.90683860482043</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>101.762548764523</v>
       </c>
       <c r="T35" t="n">
-        <v>218.416431777981</v>
+        <v>218.4164317779812</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7658798578267</v>
+        <v>255.7658798578287</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>34.83333836628347</v>
       </c>
       <c r="G37" t="n">
-        <v>99.92818699253706</v>
+        <v>164.5636707340529</v>
       </c>
       <c r="H37" t="n">
         <v>142.0850946195193</v>
@@ -3480,7 +3480,7 @@
         <v>240.7746564864595</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3809278724447</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3489,10 +3489,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2271661398822</v>
+        <v>400.2271661398823</v>
       </c>
       <c r="H38" t="n">
         <v>294.1881112878361</v>
       </c>
       <c r="I38" t="n">
-        <v>31.90683860482039</v>
+        <v>31.90683860482043</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,13 +3559,13 @@
         <v>218.416431777981</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7658798578267</v>
+        <v>255.7658798578278</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026577</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>102.1294628213564</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>45.18652724828859</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>167.8981695558921</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3809278724447</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>97.32527164214721</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3742,7 +3742,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868342</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3760,7 +3760,7 @@
         <v>294.1881112878361</v>
       </c>
       <c r="I41" t="n">
-        <v>31.90683860482039</v>
+        <v>31.90683860482088</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>101.762548764523</v>
       </c>
       <c r="T41" t="n">
-        <v>218.416431777981</v>
+        <v>218.4164317779812</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7658798578267</v>
+        <v>255.7658798578269</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>51.82847290951926</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5636707340529</v>
       </c>
       <c r="H43" t="n">
         <v>142.0850946195193</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>8.050376876691676</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>45.18652724828859</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>167.8981695558921</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>240.7746564864595</v>
@@ -3960,7 +3960,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -4030,10 +4030,10 @@
         <v>101.762548764523</v>
       </c>
       <c r="T44" t="n">
-        <v>218.416431777981</v>
+        <v>218.416431777982</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7658798578269</v>
+        <v>255.7658798578267</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4155,7 +4155,7 @@
         <v>142.0850946195193</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>97.84676948106851</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>167.8981695558921</v>
       </c>
       <c r="T46" t="n">
-        <v>240.7746564864595</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>277.3809278724447</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>126.4528819289383</v>
       </c>
       <c r="X46" t="n">
-        <v>200.8532582502253</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4333,19 +4333,19 @@
         <v>36.91199246082674</v>
       </c>
       <c r="K2" t="n">
-        <v>493.6978991635576</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="L2" t="n">
         <v>493.6978991635576</v>
       </c>
       <c r="M2" t="n">
-        <v>932.027809635875</v>
+        <v>950.4838058662885</v>
       </c>
       <c r="N2" t="n">
-        <v>1388.813716338606</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="O2" t="n">
-        <v>1388.813716338606</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P2" t="n">
         <v>1845.599623041337</v>
@@ -4357,22 +4357,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S2" t="n">
-        <v>1784.329577154242</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T2" t="n">
-        <v>1563.404006198875</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U2" t="n">
-        <v>1305.049096795288</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="V2" t="n">
-        <v>947.559681921537</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="W2" t="n">
-        <v>551.1683322218839</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="X2" t="n">
-        <v>543.4887374300353</v>
+        <v>492.7424348495194</v>
       </c>
       <c r="Y2" t="n">
         <v>138.1514673849256</v>
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I3" t="n">
-        <v>44.35863542273854</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J3" t="n">
-        <v>316.0561247023296</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K3" t="n">
-        <v>316.0561247023296</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="L3" t="n">
-        <v>316.0561247023296</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="M3" t="n">
-        <v>772.8420314050604</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="N3" t="n">
-        <v>1229.627938107791</v>
+        <v>932.027809635875</v>
       </c>
       <c r="O3" t="n">
         <v>1388.813716338606</v>
       </c>
       <c r="P3" t="n">
-        <v>1388.813716338606</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q3" t="n">
         <v>1845.599623041337</v>
@@ -4439,7 +4439,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U3" t="n">
         <v>1437.627243819906</v>
@@ -4448,13 +4448,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="4">
@@ -4500,37 +4500,37 @@
         <v>1066.806038155494</v>
       </c>
       <c r="N4" t="n">
-        <v>1444.297549031529</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="O4" t="n">
-        <v>1444.297549031529</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P4" t="n">
-        <v>1734.89676095343</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q4" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R4" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S4" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T4" t="n">
-        <v>1602.260275267237</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="U4" t="n">
-        <v>1585.111487524616</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="V4" t="n">
-        <v>1585.111487524616</v>
+        <v>1346.714494855674</v>
       </c>
       <c r="W4" t="n">
-        <v>1310.259083697129</v>
+        <v>1346.714494855674</v>
       </c>
       <c r="X4" t="n">
-        <v>1310.259083697129</v>
+        <v>1346.714494855674</v>
       </c>
       <c r="Y4" t="n">
         <v>1310.259083697129</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1820.815201993657</v>
+        <v>561.2807824307324</v>
       </c>
       <c r="C5" t="n">
-        <v>1797.954876047361</v>
+        <v>134.3800524440326</v>
       </c>
       <c r="D5" t="n">
-        <v>1374.662255232361</v>
+        <v>115.1278356694369</v>
       </c>
       <c r="E5" t="n">
-        <v>1164.243615207943</v>
+        <v>93.19129985769854</v>
       </c>
       <c r="F5" t="n">
-        <v>739.1194333973433</v>
+        <v>72.10752208750284</v>
       </c>
       <c r="G5" t="n">
-        <v>334.7803709867919</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I5" t="n">
         <v>36.91199246082674</v>
@@ -4570,25 +4570,25 @@
         <v>36.91199246082674</v>
       </c>
       <c r="K5" t="n">
-        <v>36.91199246082674</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L5" t="n">
-        <v>36.91199246082674</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M5" t="n">
         <v>493.6978991635576</v>
       </c>
       <c r="N5" t="n">
-        <v>932.7282368344229</v>
+        <v>950.4838058662885</v>
       </c>
       <c r="O5" t="n">
-        <v>932.7282368344229</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="P5" t="n">
-        <v>1389.514143537154</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="Q5" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R5" t="n">
         <v>1845.599623041337</v>
@@ -4606,13 +4606,13 @@
         <v>1845.599623041337</v>
       </c>
       <c r="W5" t="n">
-        <v>1845.599623041337</v>
+        <v>1449.208273341684</v>
       </c>
       <c r="X5" t="n">
-        <v>1837.920028249488</v>
+        <v>1037.488274509431</v>
       </c>
       <c r="Y5" t="n">
-        <v>1836.623162244782</v>
+        <v>632.1510044643213</v>
       </c>
     </row>
     <row r="6">
@@ -4655,16 +4655,16 @@
         <v>501.1445421254694</v>
       </c>
       <c r="M6" t="n">
-        <v>501.1445421254694</v>
+        <v>957.9304488282003</v>
       </c>
       <c r="N6" t="n">
-        <v>932.027809635875</v>
+        <v>957.9304488282003</v>
       </c>
       <c r="O6" t="n">
-        <v>932.027809635875</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P6" t="n">
-        <v>1388.813716338606</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q6" t="n">
         <v>1845.599623041337</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>443.7936020856257</v>
+        <v>772.315022424694</v>
       </c>
       <c r="C7" t="n">
-        <v>443.7936020856257</v>
+        <v>772.315022424694</v>
       </c>
       <c r="D7" t="n">
-        <v>280.4768292123964</v>
+        <v>608.9982495514647</v>
       </c>
       <c r="E7" t="n">
-        <v>280.4768292123964</v>
+        <v>442.7900437043182</v>
       </c>
       <c r="F7" t="n">
-        <v>280.4768292123964</v>
+        <v>270.9282694788786</v>
       </c>
       <c r="G7" t="n">
-        <v>280.4768292123964</v>
+        <v>104.6712997731108</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I7" t="n">
         <v>36.91199246082674</v>
@@ -4728,16 +4728,16 @@
         <v>94.40332068498475</v>
       </c>
       <c r="K7" t="n">
-        <v>94.40332068498475</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L7" t="n">
-        <v>303.8948463526241</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M7" t="n">
-        <v>695.080641322875</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N7" t="n">
-        <v>1072.572152198911</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="O7" t="n">
         <v>1428.000280878674</v>
@@ -4749,28 +4749,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R7" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.464575560472</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T7" t="n">
-        <v>1675.464575560472</v>
+        <v>1555.22166195441</v>
       </c>
       <c r="U7" t="n">
-        <v>1395.280127060776</v>
+        <v>1555.22166195441</v>
       </c>
       <c r="V7" t="n">
-        <v>1377.718639489631</v>
+        <v>1273.510194562439</v>
       </c>
       <c r="W7" t="n">
-        <v>1102.866235662144</v>
+        <v>998.657790734952</v>
       </c>
       <c r="X7" t="n">
-        <v>860.3023391079494</v>
+        <v>998.657790734952</v>
       </c>
       <c r="Y7" t="n">
-        <v>633.9595707976914</v>
+        <v>772.315022424694</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>526.3839111742037</v>
+        <v>965.3211864711366</v>
       </c>
       <c r="C8" t="n">
-        <v>503.5235852279079</v>
+        <v>942.4608605248408</v>
       </c>
       <c r="D8" t="n">
-        <v>80.23096441290814</v>
+        <v>519.168239709841</v>
       </c>
       <c r="E8" t="n">
-        <v>58.29442860116974</v>
+        <v>497.2317038981026</v>
       </c>
       <c r="F8" t="n">
-        <v>37.21065083097405</v>
+        <v>72.10752208750284</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I8" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K8" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L8" t="n">
-        <v>493.6978991635576</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M8" t="n">
-        <v>950.4838058662885</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N8" t="n">
-        <v>950.4838058662885</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="O8" t="n">
-        <v>1407.269712569019</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="P8" t="n">
-        <v>1728.043288159434</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="Q8" t="n">
         <v>1728.043288159434</v>
@@ -4834,22 +4834,22 @@
         <v>1741.232328914477</v>
       </c>
       <c r="T8" t="n">
-        <v>1520.30675795911</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U8" t="n">
-        <v>1520.30675795911</v>
+        <v>1482.877419510889</v>
       </c>
       <c r="V8" t="n">
-        <v>1359.249140302692</v>
+        <v>1386.49695721847</v>
       </c>
       <c r="W8" t="n">
-        <v>1359.249140302692</v>
+        <v>990.1056075188169</v>
       </c>
       <c r="X8" t="n">
-        <v>1351.569545510843</v>
+        <v>982.4260127269682</v>
       </c>
       <c r="Y8" t="n">
-        <v>946.2322754657338</v>
+        <v>981.1291467222626</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C9" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E9" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J9" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K9" t="n">
-        <v>308.6094817404178</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L9" t="n">
-        <v>765.3953884431487</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M9" t="n">
-        <v>850.0084995511716</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="N9" t="n">
-        <v>850.0084995511716</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="O9" t="n">
-        <v>1306.794406253902</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P9" t="n">
-        <v>1306.794406253902</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q9" t="n">
-        <v>1763.580312956633</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R9" t="n">
         <v>1845.599623041337</v>
@@ -4913,7 +4913,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U9" t="n">
         <v>1437.627243819906</v>
@@ -4922,13 +4922,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>810.0886406460716</v>
+        <v>132.6050089519726</v>
       </c>
       <c r="C10" t="n">
-        <v>638.1160775249875</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D10" t="n">
-        <v>474.7993046517582</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E10" t="n">
-        <v>474.7993046517582</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F10" t="n">
-        <v>302.9375304263186</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G10" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H10" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I10" t="n">
         <v>36.91199246082674</v>
@@ -4968,19 +4968,19 @@
         <v>320.9309218908219</v>
       </c>
       <c r="L10" t="n">
-        <v>320.9309218908219</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M10" t="n">
-        <v>712.1167168610727</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N10" t="n">
-        <v>1089.608227737109</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O10" t="n">
-        <v>1445.036356416872</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P10" t="n">
-        <v>1735.635568338772</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q10" t="n">
         <v>1845.599623041337</v>
@@ -4989,25 +4989,25 @@
         <v>1798.56100972851</v>
       </c>
       <c r="S10" t="n">
-        <v>1798.56100972851</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T10" t="n">
-        <v>1797.855358239515</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="U10" t="n">
-        <v>1517.670909739819</v>
+        <v>1348.241513747949</v>
       </c>
       <c r="V10" t="n">
-        <v>1517.670909739819</v>
+        <v>1066.530046355978</v>
       </c>
       <c r="W10" t="n">
-        <v>1242.818505912332</v>
+        <v>791.6776425284911</v>
       </c>
       <c r="X10" t="n">
-        <v>1000.254609358137</v>
+        <v>549.1137459742962</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000.254609358137</v>
+        <v>322.7709776640382</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2537.147095089301</v>
+        <v>2537.147095089302</v>
       </c>
       <c r="C11" t="n">
-        <v>2110.246365102601</v>
+        <v>2110.246365102602</v>
       </c>
       <c r="D11" t="n">
         <v>1686.953744287602</v>
@@ -5032,16 +5032,16 @@
         <v>835.8526226248596</v>
       </c>
       <c r="G11" t="n">
-        <v>431.5827578370998</v>
+        <v>431.5827578370997</v>
       </c>
       <c r="H11" t="n">
-        <v>134.4230494655482</v>
+        <v>134.4230494655481</v>
       </c>
       <c r="I11" t="n">
-        <v>102.1939195616892</v>
+        <v>102.1939195616891</v>
       </c>
       <c r="J11" t="n">
-        <v>470.5535661874116</v>
+        <v>470.5535661874115</v>
       </c>
       <c r="K11" t="n">
         <v>1194.688907550584</v>
@@ -5050,31 +5050,31 @@
         <v>2135.016552941745</v>
       </c>
       <c r="M11" t="n">
-        <v>3151.211356551842</v>
+        <v>2135.016552941745</v>
       </c>
       <c r="N11" t="n">
-        <v>3151.211356551842</v>
+        <v>3071.683016440901</v>
       </c>
       <c r="O11" t="n">
-        <v>4007.783013152522</v>
+        <v>3928.254673041581</v>
       </c>
       <c r="P11" t="n">
-        <v>4725.814977942275</v>
+        <v>4646.286637831333</v>
       </c>
       <c r="Q11" t="n">
-        <v>4987.879408059815</v>
+        <v>5109.695978084457</v>
       </c>
       <c r="R11" t="n">
-        <v>5109.695978084459</v>
+        <v>5109.695978084457</v>
       </c>
       <c r="S11" t="n">
-        <v>5006.905524786961</v>
+        <v>5006.905524786959</v>
       </c>
       <c r="T11" t="n">
-        <v>4786.282866425364</v>
+        <v>4786.282866425362</v>
       </c>
       <c r="U11" t="n">
-        <v>4527.933492831599</v>
+        <v>4527.933492831598</v>
       </c>
       <c r="V11" t="n">
         <v>4170.444077957847</v>
@@ -5083,7 +5083,7 @@
         <v>3774.052728258194</v>
       </c>
       <c r="X11" t="n">
-        <v>3362.332729425941</v>
+        <v>3362.332729425942</v>
       </c>
       <c r="Y11" t="n">
         <v>2956.995459380832</v>
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>668.9228127811953</v>
+        <v>668.9228127811951</v>
       </c>
       <c r="C12" t="n">
-        <v>551.4169092987</v>
+        <v>551.4169092986999</v>
       </c>
       <c r="D12" t="n">
         <v>447.576950813985</v>
@@ -5111,31 +5111,31 @@
         <v>249.2291867698264</v>
       </c>
       <c r="G12" t="n">
-        <v>155.2124389796627</v>
+        <v>155.2124389796626</v>
       </c>
       <c r="H12" t="n">
-        <v>102.1939195616892</v>
+        <v>102.1939195616891</v>
       </c>
       <c r="I12" t="n">
-        <v>102.1939195616892</v>
+        <v>110.8899249625341</v>
       </c>
       <c r="J12" t="n">
-        <v>102.1939195616892</v>
+        <v>386.0157602672283</v>
       </c>
       <c r="K12" t="n">
-        <v>102.1939195616892</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="L12" t="n">
-        <v>102.1939195616892</v>
+        <v>1356.597770963786</v>
       </c>
       <c r="M12" t="n">
-        <v>1167.374810161577</v>
+        <v>1356.597770963786</v>
       </c>
       <c r="N12" t="n">
-        <v>1167.374810161577</v>
+        <v>1356.597770963786</v>
       </c>
       <c r="O12" t="n">
-        <v>1167.374810161577</v>
+        <v>1356.597770963786</v>
       </c>
       <c r="P12" t="n">
         <v>1356.597770963786</v>
@@ -5162,10 +5162,10 @@
         <v>1101.020057081303</v>
       </c>
       <c r="X12" t="n">
-        <v>937.5427108479656</v>
+        <v>937.5427108479655</v>
       </c>
       <c r="Y12" t="n">
-        <v>797.849822201258</v>
+        <v>797.8498222012579</v>
       </c>
     </row>
     <row r="13">
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>516.4111120705509</v>
+        <v>630.4888672885988</v>
       </c>
       <c r="C13" t="n">
-        <v>516.4111120705509</v>
+        <v>630.4888672885988</v>
       </c>
       <c r="D13" t="n">
-        <v>516.4111120705509</v>
+        <v>630.4888672885988</v>
       </c>
       <c r="E13" t="n">
-        <v>516.4111120705509</v>
+        <v>464.2806614414524</v>
       </c>
       <c r="F13" t="n">
-        <v>344.5493378451113</v>
+        <v>464.2806614414524</v>
       </c>
       <c r="G13" t="n">
-        <v>344.5493378451113</v>
+        <v>298.0547314070556</v>
       </c>
       <c r="H13" t="n">
-        <v>201.0290402496372</v>
+        <v>154.5344338115815</v>
       </c>
       <c r="I13" t="n">
-        <v>102.1939195616892</v>
+        <v>102.1939195616891</v>
       </c>
       <c r="J13" t="n">
         <v>161.8360819069369</v>
       </c>
       <c r="K13" t="n">
-        <v>391.8981642838589</v>
+        <v>391.8981642838588</v>
       </c>
       <c r="L13" t="n">
-        <v>751.1104045979919</v>
+        <v>751.1104045979918</v>
       </c>
       <c r="M13" t="n">
         <v>1147.064983514488</v>
@@ -5223,28 +5223,28 @@
         <v>2312.766193587243</v>
       </c>
       <c r="R13" t="n">
-        <v>2267.12323677079</v>
+        <v>2312.766193587243</v>
       </c>
       <c r="S13" t="n">
-        <v>2097.529126108273</v>
+        <v>2143.172082924726</v>
       </c>
       <c r="T13" t="n">
-        <v>1854.322402384576</v>
+        <v>1899.96535920103</v>
       </c>
       <c r="U13" t="n">
-        <v>1574.139646957864</v>
+        <v>1619.782603774318</v>
       </c>
       <c r="V13" t="n">
-        <v>1292.428179565893</v>
+        <v>1338.071136382346</v>
       </c>
       <c r="W13" t="n">
-        <v>1017.575775738406</v>
+        <v>1063.218732554859</v>
       </c>
       <c r="X13" t="n">
-        <v>775.0118791842114</v>
+        <v>820.6548360006644</v>
       </c>
       <c r="Y13" t="n">
-        <v>548.6691108739534</v>
+        <v>820.6548360006644</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2537.147095089304</v>
+        <v>2537.147095089302</v>
       </c>
       <c r="C14" t="n">
-        <v>2110.246365102604</v>
+        <v>2110.246365102602</v>
       </c>
       <c r="D14" t="n">
-        <v>1686.953744287604</v>
+        <v>1686.953744287602</v>
       </c>
       <c r="E14" t="n">
-        <v>1260.976804435461</v>
+        <v>1260.97680443546</v>
       </c>
       <c r="F14" t="n">
-        <v>835.8526226248616</v>
+        <v>835.8526226248598</v>
       </c>
       <c r="G14" t="n">
-        <v>431.5827578370998</v>
+        <v>431.5827578371</v>
       </c>
       <c r="H14" t="n">
-        <v>134.4230494655482</v>
+        <v>134.4230494655483</v>
       </c>
       <c r="I14" t="n">
-        <v>102.1939195616892</v>
+        <v>102.1939195616891</v>
       </c>
       <c r="J14" t="n">
-        <v>470.5535661874116</v>
+        <v>470.5535661874115</v>
       </c>
       <c r="K14" t="n">
-        <v>1067.13575690145</v>
+        <v>1194.688907550584</v>
       </c>
       <c r="L14" t="n">
-        <v>1067.13575690145</v>
+        <v>2135.016552941745</v>
       </c>
       <c r="M14" t="n">
-        <v>2083.330560511547</v>
+        <v>2949.866446416257</v>
       </c>
       <c r="N14" t="n">
-        <v>3071.683016440903</v>
+        <v>2949.866446416257</v>
       </c>
       <c r="O14" t="n">
-        <v>3928.254673041582</v>
+        <v>3806.438103016937</v>
       </c>
       <c r="P14" t="n">
-        <v>4646.286637831335</v>
+        <v>4524.470067806689</v>
       </c>
       <c r="Q14" t="n">
-        <v>5109.695978084459</v>
+        <v>4987.879408059814</v>
       </c>
       <c r="R14" t="n">
-        <v>5109.695978084459</v>
+        <v>5109.695978084457</v>
       </c>
       <c r="S14" t="n">
-        <v>5006.905524786961</v>
+        <v>5006.905524786959</v>
       </c>
       <c r="T14" t="n">
-        <v>4786.282866425364</v>
+        <v>4786.282866425362</v>
       </c>
       <c r="U14" t="n">
-        <v>4527.933492831599</v>
+        <v>4527.933492831598</v>
       </c>
       <c r="V14" t="n">
-        <v>4170.444077957849</v>
+        <v>4170.444077957847</v>
       </c>
       <c r="W14" t="n">
-        <v>3774.052728258196</v>
+        <v>3774.052728258194</v>
       </c>
       <c r="X14" t="n">
-        <v>3362.332729425943</v>
+        <v>3362.332729425942</v>
       </c>
       <c r="Y14" t="n">
-        <v>2956.995459380834</v>
+        <v>2956.995459380832</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>668.9228127811953</v>
+        <v>668.9228127811951</v>
       </c>
       <c r="C15" t="n">
-        <v>551.4169092987</v>
+        <v>551.4169092986999</v>
       </c>
       <c r="D15" t="n">
         <v>447.576950813985</v>
@@ -5348,37 +5348,37 @@
         <v>249.2291867698264</v>
       </c>
       <c r="G15" t="n">
-        <v>155.2124389796627</v>
+        <v>155.2124389796626</v>
       </c>
       <c r="H15" t="n">
-        <v>102.1939195616892</v>
+        <v>102.1939195616891</v>
       </c>
       <c r="I15" t="n">
-        <v>102.1939195616892</v>
+        <v>110.8899249625341</v>
       </c>
       <c r="J15" t="n">
-        <v>102.1939195616892</v>
+        <v>386.0157602672283</v>
       </c>
       <c r="K15" t="n">
-        <v>698.5384355458507</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="L15" t="n">
-        <v>698.5384355458507</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="M15" t="n">
-        <v>698.5384355458507</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="N15" t="n">
-        <v>1797.291081797867</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="O15" t="n">
-        <v>1909.647579453721</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="P15" t="n">
-        <v>1909.647579453721</v>
+        <v>1356.597770963786</v>
       </c>
       <c r="Q15" t="n">
-        <v>1909.647579453721</v>
+        <v>1825.375278963217</v>
       </c>
       <c r="R15" t="n">
         <v>1909.647579453721</v>
@@ -5399,10 +5399,10 @@
         <v>1101.020057081303</v>
       </c>
       <c r="X15" t="n">
-        <v>937.5427108479656</v>
+        <v>937.5427108479655</v>
       </c>
       <c r="Y15" t="n">
-        <v>797.849822201258</v>
+        <v>797.8498222012579</v>
       </c>
     </row>
     <row r="16">
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>682.7301068133418</v>
+        <v>1012.162020825323</v>
       </c>
       <c r="C16" t="n">
-        <v>510.7575436922577</v>
+        <v>1012.162020825323</v>
       </c>
       <c r="D16" t="n">
-        <v>510.7575436922577</v>
+        <v>848.8452479520942</v>
       </c>
       <c r="E16" t="n">
-        <v>344.5493378451113</v>
+        <v>682.6370421049477</v>
       </c>
       <c r="F16" t="n">
-        <v>344.5493378451113</v>
+        <v>510.7752678795081</v>
       </c>
       <c r="G16" t="n">
         <v>344.5493378451113</v>
       </c>
       <c r="H16" t="n">
-        <v>201.0290402496372</v>
+        <v>201.0290402496371</v>
       </c>
       <c r="I16" t="n">
-        <v>102.1939195616892</v>
+        <v>102.1939195616891</v>
       </c>
       <c r="J16" t="n">
         <v>161.8360819069369</v>
       </c>
       <c r="K16" t="n">
-        <v>391.8981642838589</v>
+        <v>391.8981642838588</v>
       </c>
       <c r="L16" t="n">
-        <v>751.1104045979919</v>
+        <v>751.1104045979918</v>
       </c>
       <c r="M16" t="n">
         <v>1147.064983514488</v>
@@ -5463,25 +5463,25 @@
         <v>2267.12323677079</v>
       </c>
       <c r="S16" t="n">
-        <v>2097.529126108273</v>
+        <v>2267.12323677079</v>
       </c>
       <c r="T16" t="n">
-        <v>1896.837899644059</v>
+        <v>2267.12323677079</v>
       </c>
       <c r="U16" t="n">
-        <v>1616.655144217347</v>
+        <v>1986.940481344078</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.655144217347</v>
+        <v>1719.744289919071</v>
       </c>
       <c r="W16" t="n">
-        <v>1341.80274038986</v>
+        <v>1444.891886091584</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.238843835665</v>
+        <v>1202.327989537389</v>
       </c>
       <c r="Y16" t="n">
-        <v>872.8960755254075</v>
+        <v>1202.327989537389</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2537.147095089303</v>
+        <v>2537.147095089301</v>
       </c>
       <c r="C17" t="n">
-        <v>2110.246365102603</v>
+        <v>2110.246365102601</v>
       </c>
       <c r="D17" t="n">
-        <v>1686.953744287604</v>
+        <v>1686.953744287602</v>
       </c>
       <c r="E17" t="n">
-        <v>1260.976804435461</v>
+        <v>1260.976804435459</v>
       </c>
       <c r="F17" t="n">
-        <v>835.8526226248605</v>
+        <v>835.8526226248596</v>
       </c>
       <c r="G17" t="n">
-        <v>431.5827578370998</v>
+        <v>431.5827578370997</v>
       </c>
       <c r="H17" t="n">
-        <v>134.4230494655482</v>
+        <v>134.4230494655481</v>
       </c>
       <c r="I17" t="n">
-        <v>102.1939195616892</v>
+        <v>102.1939195616891</v>
       </c>
       <c r="J17" t="n">
-        <v>470.5535661874116</v>
+        <v>470.5535661874115</v>
       </c>
       <c r="K17" t="n">
         <v>1194.688907550584</v>
@@ -5524,43 +5524,43 @@
         <v>2135.016552941745</v>
       </c>
       <c r="M17" t="n">
-        <v>2679.545955276656</v>
+        <v>3151.211356551842</v>
       </c>
       <c r="N17" t="n">
-        <v>3667.898411206011</v>
+        <v>4139.563812481198</v>
       </c>
       <c r="O17" t="n">
-        <v>4524.470067806691</v>
+        <v>4996.135469081878</v>
       </c>
       <c r="P17" t="n">
-        <v>4524.470067806691</v>
+        <v>5109.695978084457</v>
       </c>
       <c r="Q17" t="n">
-        <v>4987.879408059815</v>
+        <v>5109.695978084457</v>
       </c>
       <c r="R17" t="n">
-        <v>5109.695978084459</v>
+        <v>5109.695978084457</v>
       </c>
       <c r="S17" t="n">
-        <v>5006.905524786961</v>
+        <v>5006.905524786959</v>
       </c>
       <c r="T17" t="n">
-        <v>4786.282866425364</v>
+        <v>4786.282866425362</v>
       </c>
       <c r="U17" t="n">
-        <v>4527.933492831599</v>
+        <v>4527.933492831598</v>
       </c>
       <c r="V17" t="n">
-        <v>4170.444077957849</v>
+        <v>4170.444077957847</v>
       </c>
       <c r="W17" t="n">
-        <v>3774.052728258196</v>
+        <v>3774.052728258194</v>
       </c>
       <c r="X17" t="n">
-        <v>3362.332729425943</v>
+        <v>3362.332729425941</v>
       </c>
       <c r="Y17" t="n">
-        <v>2956.995459380833</v>
+        <v>2956.995459380832</v>
       </c>
     </row>
     <row r="18">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>668.9228127811953</v>
+        <v>668.9228127811951</v>
       </c>
       <c r="C18" t="n">
-        <v>551.4169092987</v>
+        <v>551.4169092986999</v>
       </c>
       <c r="D18" t="n">
         <v>447.576950813985</v>
@@ -5585,37 +5585,37 @@
         <v>249.2291867698264</v>
       </c>
       <c r="G18" t="n">
-        <v>155.2124389796627</v>
+        <v>155.2124389796626</v>
       </c>
       <c r="H18" t="n">
-        <v>102.1939195616892</v>
+        <v>102.1939195616891</v>
       </c>
       <c r="I18" t="n">
-        <v>102.1939195616892</v>
+        <v>110.8899249625341</v>
       </c>
       <c r="J18" t="n">
-        <v>102.1939195616892</v>
+        <v>386.0157602672283</v>
       </c>
       <c r="K18" t="n">
-        <v>698.5384355458507</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="L18" t="n">
-        <v>1543.216184716577</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="M18" t="n">
-        <v>1543.216184716577</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="N18" t="n">
-        <v>1543.216184716577</v>
+        <v>1356.597770963786</v>
       </c>
       <c r="O18" t="n">
-        <v>1543.216184716577</v>
+        <v>1356.597770963786</v>
       </c>
       <c r="P18" t="n">
-        <v>1909.647579453721</v>
+        <v>1356.597770963786</v>
       </c>
       <c r="Q18" t="n">
-        <v>1909.647579453721</v>
+        <v>1825.375278963217</v>
       </c>
       <c r="R18" t="n">
         <v>1909.647579453721</v>
@@ -5636,10 +5636,10 @@
         <v>1101.020057081303</v>
       </c>
       <c r="X18" t="n">
-        <v>937.5427108479656</v>
+        <v>937.5427108479655</v>
       </c>
       <c r="Y18" t="n">
-        <v>797.849822201258</v>
+        <v>797.8498222012579</v>
       </c>
     </row>
     <row r="19">
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>548.6691108739534</v>
+        <v>1020.817811073178</v>
       </c>
       <c r="C19" t="n">
-        <v>376.6965477528694</v>
+        <v>848.8452479520942</v>
       </c>
       <c r="D19" t="n">
-        <v>376.6965477528694</v>
+        <v>848.8452479520942</v>
       </c>
       <c r="E19" t="n">
-        <v>210.4883419057229</v>
+        <v>682.6370421049477</v>
       </c>
       <c r="F19" t="n">
-        <v>102.1939195616892</v>
+        <v>510.7752678795081</v>
       </c>
       <c r="G19" t="n">
-        <v>102.1939195616892</v>
+        <v>344.5493378451113</v>
       </c>
       <c r="H19" t="n">
-        <v>102.1939195616892</v>
+        <v>201.0290402496371</v>
       </c>
       <c r="I19" t="n">
-        <v>102.1939195616892</v>
+        <v>102.1939195616891</v>
       </c>
       <c r="J19" t="n">
         <v>161.8360819069369</v>
       </c>
       <c r="K19" t="n">
-        <v>391.8981642838589</v>
+        <v>391.8981642838588</v>
       </c>
       <c r="L19" t="n">
-        <v>751.1104045979919</v>
+        <v>751.1104045979918</v>
       </c>
       <c r="M19" t="n">
         <v>1147.064983514488</v>
@@ -5697,28 +5697,28 @@
         <v>2312.766193587243</v>
       </c>
       <c r="R19" t="n">
-        <v>2267.12323677079</v>
+        <v>2312.766193587243</v>
       </c>
       <c r="S19" t="n">
-        <v>2097.529126108273</v>
+        <v>2143.172082924726</v>
       </c>
       <c r="T19" t="n">
-        <v>1854.322402384576</v>
+        <v>2143.172082924726</v>
       </c>
       <c r="U19" t="n">
-        <v>1574.139646957864</v>
+        <v>2143.172082924726</v>
       </c>
       <c r="V19" t="n">
-        <v>1292.428179565893</v>
+        <v>1861.460615532755</v>
       </c>
       <c r="W19" t="n">
-        <v>1017.575775738406</v>
+        <v>1679.890444649697</v>
       </c>
       <c r="X19" t="n">
-        <v>775.0118791842114</v>
+        <v>1437.326548095502</v>
       </c>
       <c r="Y19" t="n">
-        <v>548.6691108739534</v>
+        <v>1210.983779785244</v>
       </c>
     </row>
     <row r="20">
@@ -5728,58 +5728,58 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2537.147095089301</v>
+        <v>2537.147095089302</v>
       </c>
       <c r="C20" t="n">
-        <v>2110.246365102601</v>
+        <v>2110.246365102602</v>
       </c>
       <c r="D20" t="n">
         <v>1686.953744287602</v>
       </c>
       <c r="E20" t="n">
-        <v>1260.976804435459</v>
+        <v>1260.97680443546</v>
       </c>
       <c r="F20" t="n">
-        <v>835.8526226248587</v>
+        <v>835.8526226248596</v>
       </c>
       <c r="G20" t="n">
-        <v>431.5827578370991</v>
+        <v>431.5827578370997</v>
       </c>
       <c r="H20" t="n">
-        <v>134.4230494655482</v>
+        <v>134.4230494655481</v>
       </c>
       <c r="I20" t="n">
-        <v>102.1939195616892</v>
+        <v>102.1939195616891</v>
       </c>
       <c r="J20" t="n">
-        <v>221.1838455136337</v>
+        <v>470.5535661874115</v>
       </c>
       <c r="K20" t="n">
-        <v>945.3191868768064</v>
+        <v>1194.688907550584</v>
       </c>
       <c r="L20" t="n">
-        <v>945.3191868768064</v>
+        <v>2135.016552941745</v>
       </c>
       <c r="M20" t="n">
-        <v>1961.513990486903</v>
+        <v>3071.683016440901</v>
       </c>
       <c r="N20" t="n">
-        <v>2949.866446416259</v>
+        <v>3071.683016440901</v>
       </c>
       <c r="O20" t="n">
-        <v>3806.438103016939</v>
+        <v>3928.254673041581</v>
       </c>
       <c r="P20" t="n">
-        <v>4524.470067806691</v>
+        <v>4646.286637831333</v>
       </c>
       <c r="Q20" t="n">
-        <v>4987.879408059815</v>
+        <v>5109.695978084457</v>
       </c>
       <c r="R20" t="n">
-        <v>5109.695978084459</v>
+        <v>5109.695978084457</v>
       </c>
       <c r="S20" t="n">
-        <v>5006.90552478696</v>
+        <v>5006.905524786959</v>
       </c>
       <c r="T20" t="n">
         <v>4786.282866425362</v>
@@ -5794,7 +5794,7 @@
         <v>3774.052728258194</v>
       </c>
       <c r="X20" t="n">
-        <v>3362.332729425941</v>
+        <v>3362.332729425942</v>
       </c>
       <c r="Y20" t="n">
         <v>2956.995459380832</v>
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>668.9228127811953</v>
+        <v>668.9228127811951</v>
       </c>
       <c r="C21" t="n">
-        <v>551.4169092987</v>
+        <v>551.4169092986999</v>
       </c>
       <c r="D21" t="n">
         <v>447.576950813985</v>
@@ -5822,34 +5822,34 @@
         <v>249.2291867698264</v>
       </c>
       <c r="G21" t="n">
-        <v>155.2124389796627</v>
+        <v>155.2124389796626</v>
       </c>
       <c r="H21" t="n">
-        <v>102.1939195616892</v>
+        <v>102.1939195616891</v>
       </c>
       <c r="I21" t="n">
-        <v>110.8899249625342</v>
+        <v>110.8899249625341</v>
       </c>
       <c r="J21" t="n">
-        <v>110.8899249625342</v>
+        <v>386.0157602672283</v>
       </c>
       <c r="K21" t="n">
-        <v>110.8899249625342</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="L21" t="n">
-        <v>110.8899249625342</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.070815562422</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="N21" t="n">
-        <v>1176.070815562422</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="O21" t="n">
-        <v>1825.375278963217</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="P21" t="n">
-        <v>1825.375278963217</v>
+        <v>1356.597770963786</v>
       </c>
       <c r="Q21" t="n">
         <v>1825.375278963217</v>
@@ -5873,10 +5873,10 @@
         <v>1101.020057081303</v>
       </c>
       <c r="X21" t="n">
-        <v>937.5427108479656</v>
+        <v>937.5427108479655</v>
       </c>
       <c r="Y21" t="n">
-        <v>797.849822201258</v>
+        <v>797.8498222012579</v>
       </c>
     </row>
     <row r="22">
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>440.39241271717</v>
+        <v>685.857566370312</v>
       </c>
       <c r="C22" t="n">
-        <v>268.419849596086</v>
+        <v>685.857566370312</v>
       </c>
       <c r="D22" t="n">
-        <v>268.419849596086</v>
+        <v>522.5407934970827</v>
       </c>
       <c r="E22" t="n">
-        <v>268.419849596086</v>
+        <v>522.5407934970827</v>
       </c>
       <c r="F22" t="n">
-        <v>268.419849596086</v>
+        <v>350.6790192716431</v>
       </c>
       <c r="G22" t="n">
-        <v>102.1939195616892</v>
+        <v>344.5493378451113</v>
       </c>
       <c r="H22" t="n">
-        <v>102.1939195616892</v>
+        <v>201.0290402496371</v>
       </c>
       <c r="I22" t="n">
-        <v>102.1939195616892</v>
+        <v>102.1939195616891</v>
       </c>
       <c r="J22" t="n">
         <v>161.8360819069369</v>
       </c>
       <c r="K22" t="n">
-        <v>391.8981642838589</v>
+        <v>391.8981642838588</v>
       </c>
       <c r="L22" t="n">
-        <v>751.1104045979919</v>
+        <v>751.1104045979918</v>
       </c>
       <c r="M22" t="n">
         <v>1147.064983514488</v>
@@ -5934,28 +5934,28 @@
         <v>2312.766193587243</v>
       </c>
       <c r="R22" t="n">
-        <v>2267.12323677079</v>
+        <v>2312.766193587243</v>
       </c>
       <c r="S22" t="n">
-        <v>2097.529126108273</v>
+        <v>2143.172082924726</v>
       </c>
       <c r="T22" t="n">
-        <v>1854.322402384576</v>
+        <v>1899.96535920103</v>
       </c>
       <c r="U22" t="n">
-        <v>1574.139646957864</v>
+        <v>1619.782603774318</v>
       </c>
       <c r="V22" t="n">
-        <v>1292.428179565893</v>
+        <v>1619.782603774318</v>
       </c>
       <c r="W22" t="n">
-        <v>1017.575775738406</v>
+        <v>1344.93019994683</v>
       </c>
       <c r="X22" t="n">
-        <v>775.0118791842114</v>
+        <v>1102.366303392636</v>
       </c>
       <c r="Y22" t="n">
-        <v>548.6691108739534</v>
+        <v>876.0235350823777</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2537.147095089303</v>
+        <v>2537.147095089302</v>
       </c>
       <c r="C23" t="n">
-        <v>2110.246365102603</v>
+        <v>2110.246365102602</v>
       </c>
       <c r="D23" t="n">
-        <v>1686.953744287604</v>
+        <v>1686.953744287602</v>
       </c>
       <c r="E23" t="n">
-        <v>1260.976804435461</v>
+        <v>1260.976804435459</v>
       </c>
       <c r="F23" t="n">
-        <v>835.8526226248605</v>
+        <v>835.8526226248596</v>
       </c>
       <c r="G23" t="n">
-        <v>431.5827578371</v>
+        <v>431.5827578370997</v>
       </c>
       <c r="H23" t="n">
-        <v>134.4230494655482</v>
+        <v>134.4230494655481</v>
       </c>
       <c r="I23" t="n">
-        <v>102.1939195616892</v>
+        <v>102.1939195616891</v>
       </c>
       <c r="J23" t="n">
-        <v>470.5535661874116</v>
+        <v>470.5535661874115</v>
       </c>
       <c r="K23" t="n">
-        <v>470.5535661874116</v>
+        <v>1194.688907550584</v>
       </c>
       <c r="L23" t="n">
-        <v>945.3191868768064</v>
+        <v>1961.513990486902</v>
       </c>
       <c r="M23" t="n">
-        <v>1961.513990486903</v>
+        <v>1961.513990486902</v>
       </c>
       <c r="N23" t="n">
-        <v>2949.866446416259</v>
+        <v>2949.866446416257</v>
       </c>
       <c r="O23" t="n">
-        <v>3806.438103016939</v>
+        <v>3806.438103016937</v>
       </c>
       <c r="P23" t="n">
-        <v>4524.470067806691</v>
+        <v>4524.470067806689</v>
       </c>
       <c r="Q23" t="n">
-        <v>4987.879408059815</v>
+        <v>4987.879408059814</v>
       </c>
       <c r="R23" t="n">
-        <v>5109.695978084459</v>
+        <v>5109.695978084457</v>
       </c>
       <c r="S23" t="n">
-        <v>5006.905524786961</v>
+        <v>5006.905524786959</v>
       </c>
       <c r="T23" t="n">
-        <v>4786.282866425364</v>
+        <v>4786.282866425362</v>
       </c>
       <c r="U23" t="n">
-        <v>4527.933492831599</v>
+        <v>4527.933492831598</v>
       </c>
       <c r="V23" t="n">
-        <v>4170.444077957849</v>
+        <v>4170.444077957847</v>
       </c>
       <c r="W23" t="n">
-        <v>3774.052728258196</v>
+        <v>3774.052728258194</v>
       </c>
       <c r="X23" t="n">
-        <v>3362.332729425943</v>
+        <v>3362.332729425942</v>
       </c>
       <c r="Y23" t="n">
-        <v>2956.995459380833</v>
+        <v>2956.995459380832</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>668.9228127811953</v>
+        <v>668.9228127811951</v>
       </c>
       <c r="C24" t="n">
-        <v>551.4169092987</v>
+        <v>551.4169092986999</v>
       </c>
       <c r="D24" t="n">
         <v>447.576950813985</v>
@@ -6059,31 +6059,31 @@
         <v>249.2291867698264</v>
       </c>
       <c r="G24" t="n">
-        <v>155.2124389796627</v>
+        <v>155.2124389796626</v>
       </c>
       <c r="H24" t="n">
-        <v>102.1939195616892</v>
+        <v>102.1939195616891</v>
       </c>
       <c r="I24" t="n">
-        <v>102.1939195616892</v>
+        <v>110.8899249625341</v>
       </c>
       <c r="J24" t="n">
-        <v>102.1939195616892</v>
+        <v>386.0157602672283</v>
       </c>
       <c r="K24" t="n">
-        <v>633.4707874455086</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="L24" t="n">
-        <v>633.4707874455086</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="M24" t="n">
-        <v>633.4707874455086</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="N24" t="n">
-        <v>633.4707874455086</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="O24" t="n">
-        <v>633.4707874455086</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="P24" t="n">
         <v>1356.597770963786</v>
@@ -6110,10 +6110,10 @@
         <v>1101.020057081303</v>
       </c>
       <c r="X24" t="n">
-        <v>937.5427108479656</v>
+        <v>937.5427108479655</v>
       </c>
       <c r="Y24" t="n">
-        <v>797.849822201258</v>
+        <v>797.8498222012579</v>
       </c>
     </row>
     <row r="25">
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>358.5031421618878</v>
+        <v>1184.134583946407</v>
       </c>
       <c r="C25" t="n">
-        <v>186.5305790408038</v>
+        <v>1012.162020825323</v>
       </c>
       <c r="D25" t="n">
-        <v>102.1939195616892</v>
+        <v>848.8452479520942</v>
       </c>
       <c r="E25" t="n">
-        <v>102.1939195616892</v>
+        <v>682.6370421049477</v>
       </c>
       <c r="F25" t="n">
-        <v>102.1939195616892</v>
+        <v>510.7752678795081</v>
       </c>
       <c r="G25" t="n">
-        <v>102.1939195616892</v>
+        <v>344.5493378451113</v>
       </c>
       <c r="H25" t="n">
-        <v>102.1939195616892</v>
+        <v>201.0290402496371</v>
       </c>
       <c r="I25" t="n">
-        <v>102.1939195616892</v>
+        <v>102.1939195616891</v>
       </c>
       <c r="J25" t="n">
         <v>161.8360819069369</v>
       </c>
       <c r="K25" t="n">
-        <v>391.8981642838589</v>
+        <v>391.8981642838588</v>
       </c>
       <c r="L25" t="n">
-        <v>751.1104045979919</v>
+        <v>751.1104045979918</v>
       </c>
       <c r="M25" t="n">
         <v>1147.064983514488</v>
@@ -6171,28 +6171,28 @@
         <v>2312.766193587243</v>
       </c>
       <c r="R25" t="n">
-        <v>2267.12323677079</v>
+        <v>2312.766193587243</v>
       </c>
       <c r="S25" t="n">
-        <v>2097.529126108273</v>
+        <v>2143.172082924726</v>
       </c>
       <c r="T25" t="n">
-        <v>1854.322402384576</v>
+        <v>2118.059621350413</v>
       </c>
       <c r="U25" t="n">
-        <v>1574.139646957864</v>
+        <v>2118.059621350413</v>
       </c>
       <c r="V25" t="n">
-        <v>1292.428179565893</v>
+        <v>2118.059621350413</v>
       </c>
       <c r="W25" t="n">
-        <v>1017.575775738406</v>
+        <v>1843.207217522926</v>
       </c>
       <c r="X25" t="n">
-        <v>775.0118791842114</v>
+        <v>1600.643320968731</v>
       </c>
       <c r="Y25" t="n">
-        <v>548.6691108739534</v>
+        <v>1374.300552658473</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2537.147095089303</v>
+        <v>2537.147095089301</v>
       </c>
       <c r="C26" t="n">
-        <v>2110.246365102603</v>
+        <v>2110.246365102601</v>
       </c>
       <c r="D26" t="n">
-        <v>1686.953744287604</v>
+        <v>1686.953744287602</v>
       </c>
       <c r="E26" t="n">
-        <v>1260.976804435461</v>
+        <v>1260.976804435459</v>
       </c>
       <c r="F26" t="n">
-        <v>835.8526226248605</v>
+        <v>835.8526226248587</v>
       </c>
       <c r="G26" t="n">
-        <v>431.5827578370998</v>
+        <v>431.5827578370991</v>
       </c>
       <c r="H26" t="n">
         <v>134.4230494655482</v>
@@ -6229,49 +6229,49 @@
         <v>470.5535661874116</v>
       </c>
       <c r="K26" t="n">
-        <v>1194.688907550584</v>
+        <v>1115.160567439645</v>
       </c>
       <c r="L26" t="n">
-        <v>1961.513990486903</v>
+        <v>2055.488212830805</v>
       </c>
       <c r="M26" t="n">
-        <v>1961.513990486903</v>
+        <v>3071.683016440903</v>
       </c>
       <c r="N26" t="n">
-        <v>2949.866446416259</v>
+        <v>3071.683016440903</v>
       </c>
       <c r="O26" t="n">
-        <v>3806.438103016939</v>
+        <v>3928.254673041582</v>
       </c>
       <c r="P26" t="n">
-        <v>4524.470067806691</v>
+        <v>4646.286637831335</v>
       </c>
       <c r="Q26" t="n">
-        <v>4987.879408059815</v>
+        <v>5109.695978084459</v>
       </c>
       <c r="R26" t="n">
         <v>5109.695978084459</v>
       </c>
       <c r="S26" t="n">
-        <v>5006.905524786961</v>
+        <v>5006.90552478696</v>
       </c>
       <c r="T26" t="n">
-        <v>4786.282866425364</v>
+        <v>4786.282866425362</v>
       </c>
       <c r="U26" t="n">
-        <v>4527.933492831599</v>
+        <v>4527.933492831598</v>
       </c>
       <c r="V26" t="n">
-        <v>4170.444077957849</v>
+        <v>4170.444077957847</v>
       </c>
       <c r="W26" t="n">
-        <v>3774.052728258196</v>
+        <v>3774.052728258194</v>
       </c>
       <c r="X26" t="n">
-        <v>3362.332729425943</v>
+        <v>3362.332729425941</v>
       </c>
       <c r="Y26" t="n">
-        <v>2956.995459380833</v>
+        <v>2956.995459380832</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>102.1939195616892</v>
       </c>
       <c r="I27" t="n">
-        <v>102.1939195616892</v>
+        <v>110.8899249625342</v>
       </c>
       <c r="J27" t="n">
-        <v>102.1939195616892</v>
+        <v>386.0157602672283</v>
       </c>
       <c r="K27" t="n">
-        <v>102.1939195616892</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="L27" t="n">
-        <v>102.1939195616892</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="M27" t="n">
-        <v>102.1939195616892</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="N27" t="n">
-        <v>717.7430879360126</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="O27" t="n">
-        <v>717.7430879360126</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="P27" t="n">
-        <v>1440.87007145429</v>
+        <v>1356.597770963786</v>
       </c>
       <c r="Q27" t="n">
-        <v>1909.647579453721</v>
+        <v>1825.375278963217</v>
       </c>
       <c r="R27" t="n">
         <v>1909.647579453721</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>431.7188982820649</v>
+        <v>1043.289701674813</v>
       </c>
       <c r="C28" t="n">
-        <v>431.7188982820649</v>
+        <v>871.3171385537287</v>
       </c>
       <c r="D28" t="n">
-        <v>268.4021254088356</v>
+        <v>708.0003656804994</v>
       </c>
       <c r="E28" t="n">
-        <v>102.1939195616892</v>
+        <v>541.7921598333529</v>
       </c>
       <c r="F28" t="n">
-        <v>102.1939195616892</v>
+        <v>411.9401471915601</v>
       </c>
       <c r="G28" t="n">
-        <v>102.1939195616892</v>
+        <v>245.7142171571633</v>
       </c>
       <c r="H28" t="n">
         <v>102.1939195616892</v>
@@ -6408,28 +6408,28 @@
         <v>2312.766193587243</v>
       </c>
       <c r="R28" t="n">
-        <v>2267.12323677079</v>
+        <v>2312.766193587243</v>
       </c>
       <c r="S28" t="n">
-        <v>2097.529126108273</v>
+        <v>2312.766193587243</v>
       </c>
       <c r="T28" t="n">
-        <v>1854.322402384576</v>
+        <v>2312.766193587243</v>
       </c>
       <c r="U28" t="n">
-        <v>1574.139646957864</v>
+        <v>2032.583438160531</v>
       </c>
       <c r="V28" t="n">
-        <v>1292.428179565893</v>
+        <v>1750.87197076856</v>
       </c>
       <c r="W28" t="n">
-        <v>1017.575775738406</v>
+        <v>1476.019566941073</v>
       </c>
       <c r="X28" t="n">
-        <v>848.2276353043885</v>
+        <v>1233.455670386878</v>
       </c>
       <c r="Y28" t="n">
-        <v>621.8848669941306</v>
+        <v>1233.455670386878</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2537.147095089304</v>
+        <v>2537.147095089303</v>
       </c>
       <c r="C29" t="n">
-        <v>2110.246365102604</v>
+        <v>2110.246365102603</v>
       </c>
       <c r="D29" t="n">
-        <v>1686.953744287604</v>
+        <v>1686.953744287602</v>
       </c>
       <c r="E29" t="n">
         <v>1260.976804435459</v>
@@ -6463,52 +6463,52 @@
         <v>102.1939195616892</v>
       </c>
       <c r="J29" t="n">
-        <v>102.1939195616892</v>
+        <v>418.8675737572127</v>
       </c>
       <c r="K29" t="n">
-        <v>826.3292609248618</v>
+        <v>1143.002915120385</v>
       </c>
       <c r="L29" t="n">
-        <v>945.3191868768064</v>
+        <v>2083.330560511546</v>
       </c>
       <c r="M29" t="n">
-        <v>1961.513990486903</v>
+        <v>2083.330560511546</v>
       </c>
       <c r="N29" t="n">
-        <v>2949.866446416259</v>
+        <v>3071.683016440902</v>
       </c>
       <c r="O29" t="n">
-        <v>3806.438103016939</v>
+        <v>3928.254673041582</v>
       </c>
       <c r="P29" t="n">
-        <v>4524.470067806691</v>
+        <v>4646.286637831334</v>
       </c>
       <c r="Q29" t="n">
-        <v>4987.879408059815</v>
+        <v>5109.695978084458</v>
       </c>
       <c r="R29" t="n">
-        <v>5109.695978084459</v>
+        <v>5109.695978084458</v>
       </c>
       <c r="S29" t="n">
-        <v>5006.905524786961</v>
+        <v>5006.90552478696</v>
       </c>
       <c r="T29" t="n">
-        <v>4786.282866425364</v>
+        <v>4786.282866425363</v>
       </c>
       <c r="U29" t="n">
-        <v>4527.933492831599</v>
+        <v>4527.933492831598</v>
       </c>
       <c r="V29" t="n">
-        <v>4170.444077957849</v>
+        <v>4170.444077957848</v>
       </c>
       <c r="W29" t="n">
-        <v>3774.052728258196</v>
+        <v>3774.052728258195</v>
       </c>
       <c r="X29" t="n">
-        <v>3362.332729425943</v>
+        <v>3362.332729425942</v>
       </c>
       <c r="Y29" t="n">
-        <v>2956.995459380834</v>
+        <v>2956.995459380833</v>
       </c>
     </row>
     <row r="30">
@@ -6539,19 +6539,19 @@
         <v>102.1939195616892</v>
       </c>
       <c r="I30" t="n">
-        <v>102.1939195616892</v>
+        <v>110.8899249625342</v>
       </c>
       <c r="J30" t="n">
-        <v>102.1939195616892</v>
+        <v>386.0157602672283</v>
       </c>
       <c r="K30" t="n">
-        <v>102.1939195616892</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="L30" t="n">
-        <v>102.1939195616892</v>
+        <v>1356.597770963786</v>
       </c>
       <c r="M30" t="n">
-        <v>1167.374810161577</v>
+        <v>1356.597770963786</v>
       </c>
       <c r="N30" t="n">
         <v>1356.597770963786</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>609.345029781442</v>
+        <v>868.7525121254938</v>
       </c>
       <c r="C31" t="n">
-        <v>437.372466660358</v>
+        <v>696.7799490044098</v>
       </c>
       <c r="D31" t="n">
-        <v>274.0556937871287</v>
+        <v>533.4631761311805</v>
       </c>
       <c r="E31" t="n">
-        <v>274.0556937871287</v>
+        <v>367.254970284034</v>
       </c>
       <c r="F31" t="n">
-        <v>102.1939195616892</v>
+        <v>367.254970284034</v>
       </c>
       <c r="G31" t="n">
-        <v>102.1939195616892</v>
+        <v>201.0290402496371</v>
       </c>
       <c r="H31" t="n">
-        <v>102.1939195616892</v>
+        <v>201.0290402496371</v>
       </c>
       <c r="I31" t="n">
         <v>102.1939195616892</v>
@@ -6645,28 +6645,28 @@
         <v>2312.766193587243</v>
       </c>
       <c r="R31" t="n">
-        <v>2267.12323677079</v>
+        <v>2312.766193587243</v>
       </c>
       <c r="S31" t="n">
-        <v>2097.529126108273</v>
+        <v>2143.172082924726</v>
       </c>
       <c r="T31" t="n">
-        <v>1854.322402384576</v>
+        <v>1899.96535920103</v>
       </c>
       <c r="U31" t="n">
-        <v>1574.139646957864</v>
+        <v>1667.880279899147</v>
       </c>
       <c r="V31" t="n">
-        <v>1292.428179565893</v>
+        <v>1386.168812507176</v>
       </c>
       <c r="W31" t="n">
-        <v>1017.575775738406</v>
+        <v>1111.316408679689</v>
       </c>
       <c r="X31" t="n">
-        <v>835.6877980917</v>
+        <v>868.7525121254938</v>
       </c>
       <c r="Y31" t="n">
-        <v>609.345029781442</v>
+        <v>868.7525121254938</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2537.147095089303</v>
+        <v>2537.147095089301</v>
       </c>
       <c r="C32" t="n">
-        <v>2110.246365102603</v>
+        <v>2110.246365102601</v>
       </c>
       <c r="D32" t="n">
-        <v>1686.953744287604</v>
+        <v>1686.953744287602</v>
       </c>
       <c r="E32" t="n">
-        <v>1260.976804435461</v>
+        <v>1260.976804435459</v>
       </c>
       <c r="F32" t="n">
-        <v>835.8526226248605</v>
+        <v>835.8526226248596</v>
       </c>
       <c r="G32" t="n">
-        <v>431.5827578371</v>
+        <v>431.5827578370997</v>
       </c>
       <c r="H32" t="n">
         <v>134.4230494655482</v>
@@ -6700,52 +6700,52 @@
         <v>102.1939195616892</v>
       </c>
       <c r="J32" t="n">
-        <v>470.5535661874116</v>
+        <v>470.5535661874115</v>
       </c>
       <c r="K32" t="n">
-        <v>470.5535661874116</v>
+        <v>1194.688907550584</v>
       </c>
       <c r="L32" t="n">
-        <v>1410.881211578572</v>
+        <v>1933.671642806161</v>
       </c>
       <c r="M32" t="n">
-        <v>2427.076015188669</v>
+        <v>2949.866446416258</v>
       </c>
       <c r="N32" t="n">
-        <v>3415.428471118025</v>
+        <v>2949.866446416258</v>
       </c>
       <c r="O32" t="n">
-        <v>4269.847443270063</v>
+        <v>3806.438103016938</v>
       </c>
       <c r="P32" t="n">
-        <v>4987.879408059815</v>
+        <v>4524.47006780669</v>
       </c>
       <c r="Q32" t="n">
         <v>4987.879408059815</v>
       </c>
       <c r="R32" t="n">
-        <v>5109.695978084459</v>
+        <v>5109.695978084458</v>
       </c>
       <c r="S32" t="n">
-        <v>5006.905524786961</v>
+        <v>5006.90552478696</v>
       </c>
       <c r="T32" t="n">
-        <v>4786.282866425364</v>
+        <v>4786.282866425362</v>
       </c>
       <c r="U32" t="n">
-        <v>4527.933492831599</v>
+        <v>4527.933492831598</v>
       </c>
       <c r="V32" t="n">
-        <v>4170.444077957849</v>
+        <v>4170.444077957847</v>
       </c>
       <c r="W32" t="n">
-        <v>3774.052728258196</v>
+        <v>3774.052728258194</v>
       </c>
       <c r="X32" t="n">
-        <v>3362.332729425943</v>
+        <v>3362.332729425942</v>
       </c>
       <c r="Y32" t="n">
-        <v>2956.995459380833</v>
+        <v>2956.995459380832</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>102.1939195616892</v>
       </c>
       <c r="I33" t="n">
-        <v>102.1939195616892</v>
+        <v>110.8899249625342</v>
       </c>
       <c r="J33" t="n">
-        <v>102.1939195616892</v>
+        <v>386.0157602672283</v>
       </c>
       <c r="K33" t="n">
-        <v>102.1939195616892</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="L33" t="n">
-        <v>810.8949332017048</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="M33" t="n">
-        <v>810.8949332017048</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="N33" t="n">
-        <v>1909.647579453721</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="O33" t="n">
-        <v>1909.647579453721</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="P33" t="n">
-        <v>1909.647579453721</v>
+        <v>1356.597770963786</v>
       </c>
       <c r="Q33" t="n">
-        <v>1909.647579453721</v>
+        <v>1825.375278963217</v>
       </c>
       <c r="R33" t="n">
         <v>1909.647579453721</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>358.5031421618878</v>
+        <v>771.3039765481017</v>
       </c>
       <c r="C34" t="n">
-        <v>186.5305790408038</v>
+        <v>599.3314134270177</v>
       </c>
       <c r="D34" t="n">
-        <v>102.1939195616892</v>
+        <v>436.0146405537884</v>
       </c>
       <c r="E34" t="n">
-        <v>102.1939195616892</v>
+        <v>269.8064347066419</v>
       </c>
       <c r="F34" t="n">
-        <v>102.1939195616892</v>
+        <v>269.8064347066419</v>
       </c>
       <c r="G34" t="n">
-        <v>102.1939195616892</v>
+        <v>201.0290402496371</v>
       </c>
       <c r="H34" t="n">
-        <v>102.1939195616892</v>
+        <v>201.0290402496371</v>
       </c>
       <c r="I34" t="n">
         <v>102.1939195616892</v>
@@ -6885,25 +6885,25 @@
         <v>2267.12323677079</v>
       </c>
       <c r="S34" t="n">
-        <v>2097.529126108273</v>
+        <v>2267.12323677079</v>
       </c>
       <c r="T34" t="n">
-        <v>1854.322402384576</v>
+        <v>2267.12323677079</v>
       </c>
       <c r="U34" t="n">
-        <v>1574.139646957864</v>
+        <v>1986.940481344078</v>
       </c>
       <c r="V34" t="n">
-        <v>1292.428179565893</v>
+        <v>1705.229013952107</v>
       </c>
       <c r="W34" t="n">
-        <v>1017.575775738406</v>
+        <v>1430.37661012462</v>
       </c>
       <c r="X34" t="n">
-        <v>775.0118791842114</v>
+        <v>1187.812713570425</v>
       </c>
       <c r="Y34" t="n">
-        <v>548.6691108739534</v>
+        <v>961.4699452601674</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2537.147095089301</v>
+        <v>2537.1470950893</v>
       </c>
       <c r="C35" t="n">
-        <v>2110.246365102601</v>
+        <v>2110.2463651026</v>
       </c>
       <c r="D35" t="n">
-        <v>1686.953744287602</v>
+        <v>1686.9537442876</v>
       </c>
       <c r="E35" t="n">
-        <v>1260.97680443546</v>
+        <v>1260.976804435458</v>
       </c>
       <c r="F35" t="n">
-        <v>835.8526226248596</v>
+        <v>835.852622624858</v>
       </c>
       <c r="G35" t="n">
-        <v>431.5827578371</v>
+        <v>431.5827578370991</v>
       </c>
       <c r="H35" t="n">
-        <v>134.4230494655485</v>
+        <v>134.4230494655482</v>
       </c>
       <c r="I35" t="n">
         <v>102.1939195616892</v>
       </c>
       <c r="J35" t="n">
-        <v>470.5535661874116</v>
+        <v>470.5535661874115</v>
       </c>
       <c r="K35" t="n">
         <v>1194.688907550584</v>
       </c>
       <c r="L35" t="n">
-        <v>1961.513990486903</v>
+        <v>1194.688907550584</v>
       </c>
       <c r="M35" t="n">
-        <v>1961.513990486903</v>
+        <v>2083.330560511546</v>
       </c>
       <c r="N35" t="n">
-        <v>2949.866446416259</v>
+        <v>3071.683016440902</v>
       </c>
       <c r="O35" t="n">
-        <v>3806.438103016939</v>
+        <v>3928.254673041582</v>
       </c>
       <c r="P35" t="n">
-        <v>4524.470067806691</v>
+        <v>4646.286637831334</v>
       </c>
       <c r="Q35" t="n">
-        <v>4987.879408059815</v>
+        <v>5109.695978084458</v>
       </c>
       <c r="R35" t="n">
-        <v>5109.695978084459</v>
+        <v>5109.695978084458</v>
       </c>
       <c r="S35" t="n">
-        <v>5006.905524786961</v>
+        <v>5006.90552478696</v>
       </c>
       <c r="T35" t="n">
         <v>4786.282866425363</v>
       </c>
       <c r="U35" t="n">
-        <v>4527.933492831598</v>
+        <v>4527.933492831597</v>
       </c>
       <c r="V35" t="n">
-        <v>4170.444077957847</v>
+        <v>4170.444077957846</v>
       </c>
       <c r="W35" t="n">
-        <v>3774.052728258194</v>
+        <v>3774.052728258193</v>
       </c>
       <c r="X35" t="n">
-        <v>3362.332729425941</v>
+        <v>3362.33272942594</v>
       </c>
       <c r="Y35" t="n">
-        <v>2956.995459380832</v>
+        <v>2956.99545938083</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>102.1939195616892</v>
       </c>
       <c r="I36" t="n">
-        <v>102.1939195616892</v>
+        <v>110.8899249625342</v>
       </c>
       <c r="J36" t="n">
-        <v>102.1939195616892</v>
+        <v>386.0157602672283</v>
       </c>
       <c r="K36" t="n">
-        <v>102.1939195616892</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="L36" t="n">
-        <v>102.1939195616892</v>
+        <v>1356.597770963786</v>
       </c>
       <c r="M36" t="n">
-        <v>1167.374810161577</v>
+        <v>1356.597770963786</v>
       </c>
       <c r="N36" t="n">
-        <v>1440.87007145429</v>
+        <v>1356.597770963786</v>
       </c>
       <c r="O36" t="n">
-        <v>1440.87007145429</v>
+        <v>1356.597770963786</v>
       </c>
       <c r="P36" t="n">
-        <v>1440.87007145429</v>
+        <v>1356.597770963786</v>
       </c>
       <c r="Q36" t="n">
-        <v>1909.647579453721</v>
+        <v>1825.375278963217</v>
       </c>
       <c r="R36" t="n">
         <v>1909.647579453721</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>775.0118791842114</v>
+        <v>881.2497941427946</v>
       </c>
       <c r="C37" t="n">
-        <v>775.0118791842114</v>
+        <v>709.2772310217106</v>
       </c>
       <c r="D37" t="n">
-        <v>611.6951063109821</v>
+        <v>545.9604581484813</v>
       </c>
       <c r="E37" t="n">
-        <v>445.4869004638356</v>
+        <v>545.9604581484813</v>
       </c>
       <c r="F37" t="n">
-        <v>445.4869004638356</v>
+        <v>510.7752678795081</v>
       </c>
       <c r="G37" t="n">
         <v>344.5493378451113</v>
       </c>
       <c r="H37" t="n">
-        <v>201.0290402496372</v>
+        <v>201.0290402496371</v>
       </c>
       <c r="I37" t="n">
         <v>102.1939195616892</v>
@@ -7128,19 +7128,19 @@
         <v>1854.322402384576</v>
       </c>
       <c r="U37" t="n">
-        <v>1574.139646957864</v>
+        <v>1854.322402384576</v>
       </c>
       <c r="V37" t="n">
-        <v>1292.428179565893</v>
+        <v>1572.610934992605</v>
       </c>
       <c r="W37" t="n">
-        <v>1017.575775738406</v>
+        <v>1297.758531165118</v>
       </c>
       <c r="X37" t="n">
-        <v>775.0118791842114</v>
+        <v>1297.758531165118</v>
       </c>
       <c r="Y37" t="n">
-        <v>775.0118791842114</v>
+        <v>1071.41576285486</v>
       </c>
     </row>
     <row r="38">
@@ -7165,7 +7165,7 @@
         <v>835.8526226248596</v>
       </c>
       <c r="G38" t="n">
-        <v>431.5827578370998</v>
+        <v>431.5827578370997</v>
       </c>
       <c r="H38" t="n">
         <v>134.4230494655482</v>
@@ -7210,7 +7210,7 @@
         <v>4527.933492831598</v>
       </c>
       <c r="V38" t="n">
-        <v>4170.444077957848</v>
+        <v>4170.444077957847</v>
       </c>
       <c r="W38" t="n">
         <v>3774.052728258194</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3868.971211411933</v>
+        <v>668.9228127811953</v>
       </c>
       <c r="C39" t="n">
-        <v>3751.465307929438</v>
+        <v>551.4169092987</v>
       </c>
       <c r="D39" t="n">
-        <v>3647.625349444723</v>
+        <v>447.576950813985</v>
       </c>
       <c r="E39" t="n">
-        <v>3542.92341571766</v>
+        <v>342.8750170869222</v>
       </c>
       <c r="F39" t="n">
-        <v>3449.277585400564</v>
+        <v>249.2291867698264</v>
       </c>
       <c r="G39" t="n">
-        <v>3355.260837610401</v>
+        <v>155.2124389796627</v>
       </c>
       <c r="H39" t="n">
-        <v>3302.242318192427</v>
+        <v>102.1939195616892</v>
       </c>
       <c r="I39" t="n">
-        <v>3302.242318192427</v>
+        <v>110.8899249625342</v>
       </c>
       <c r="J39" t="n">
-        <v>3302.242318192427</v>
+        <v>386.0157602672283</v>
       </c>
       <c r="K39" t="n">
-        <v>3302.242318192427</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="L39" t="n">
-        <v>4127.308748088877</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="M39" t="n">
-        <v>4127.308748088877</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="N39" t="n">
-        <v>4127.308748088877</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="O39" t="n">
-        <v>5025.423677593954</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="P39" t="n">
-        <v>5025.423677593954</v>
+        <v>1356.597770963786</v>
       </c>
       <c r="Q39" t="n">
-        <v>5025.423677593954</v>
+        <v>1825.375278963217</v>
       </c>
       <c r="R39" t="n">
-        <v>5109.695978084458</v>
+        <v>1909.647579453721</v>
       </c>
       <c r="S39" t="n">
-        <v>5029.059435062834</v>
+        <v>1829.011036432096</v>
       </c>
       <c r="T39" t="n">
-        <v>4887.328732030957</v>
+        <v>1687.28033340022</v>
       </c>
       <c r="U39" t="n">
-        <v>4702.562971739557</v>
+        <v>1502.514573108819</v>
       </c>
       <c r="V39" t="n">
-        <v>4497.589832878823</v>
+        <v>1297.541434248085</v>
       </c>
       <c r="W39" t="n">
-        <v>4301.06845571204</v>
+        <v>1101.020057081303</v>
       </c>
       <c r="X39" t="n">
-        <v>4137.591109478703</v>
+        <v>937.5427108479656</v>
       </c>
       <c r="Y39" t="n">
-        <v>3997.898220831996</v>
+        <v>797.849822201258</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3981.064368443621</v>
+        <v>1020.817811073178</v>
       </c>
       <c r="C40" t="n">
-        <v>3809.091805322537</v>
+        <v>848.8452479520942</v>
       </c>
       <c r="D40" t="n">
-        <v>3645.775032449308</v>
+        <v>848.8452479520942</v>
       </c>
       <c r="E40" t="n">
-        <v>3479.566826602161</v>
+        <v>682.6370421049477</v>
       </c>
       <c r="F40" t="n">
-        <v>3307.705052376722</v>
+        <v>510.7752678795081</v>
       </c>
       <c r="G40" t="n">
-        <v>3141.479122342325</v>
+        <v>344.5493378451113</v>
       </c>
       <c r="H40" t="n">
-        <v>2997.958824746851</v>
+        <v>201.0290402496371</v>
       </c>
       <c r="I40" t="n">
-        <v>2899.123704058903</v>
+        <v>102.1939195616892</v>
       </c>
       <c r="J40" t="n">
-        <v>2958.765866404151</v>
+        <v>161.8360819069369</v>
       </c>
       <c r="K40" t="n">
-        <v>3188.827948781073</v>
+        <v>391.8981642838589</v>
       </c>
       <c r="L40" t="n">
-        <v>3548.040189095206</v>
+        <v>751.1104045979919</v>
       </c>
       <c r="M40" t="n">
-        <v>3943.994768011702</v>
+        <v>1147.064983514488</v>
       </c>
       <c r="N40" t="n">
-        <v>4326.141671810497</v>
+        <v>1529.211887313284</v>
       </c>
       <c r="O40" t="n">
-        <v>4685.869809351609</v>
+        <v>1888.940024854395</v>
       </c>
       <c r="P40" t="n">
-        <v>4980.148421703879</v>
+        <v>2183.218637206664</v>
       </c>
       <c r="Q40" t="n">
-        <v>5109.695978084458</v>
+        <v>2312.766193587243</v>
       </c>
       <c r="R40" t="n">
-        <v>5109.695978084458</v>
+        <v>2267.12323677079</v>
       </c>
       <c r="S40" t="n">
-        <v>5109.695978084458</v>
+        <v>2097.529126108273</v>
       </c>
       <c r="T40" t="n">
-        <v>5109.695978084458</v>
+        <v>2097.529126108273</v>
       </c>
       <c r="U40" t="n">
-        <v>5109.695978084458</v>
+        <v>1817.346370681561</v>
       </c>
       <c r="V40" t="n">
-        <v>4827.984510692487</v>
+        <v>1535.63490328959</v>
       </c>
       <c r="W40" t="n">
-        <v>4553.132106865</v>
+        <v>1437.326548095502</v>
       </c>
       <c r="X40" t="n">
-        <v>4310.568210310805</v>
+        <v>1437.326548095502</v>
       </c>
       <c r="Y40" t="n">
-        <v>4084.225442000547</v>
+        <v>1210.983779785244</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2537.147095089303</v>
+        <v>2537.147095089302</v>
       </c>
       <c r="C41" t="n">
-        <v>2110.246365102601</v>
+        <v>2110.246365102602</v>
       </c>
       <c r="D41" t="n">
         <v>1686.953744287602</v>
       </c>
       <c r="E41" t="n">
-        <v>1260.976804435459</v>
+        <v>1260.97680443546</v>
       </c>
       <c r="F41" t="n">
-        <v>835.8526226248596</v>
+        <v>835.85262262486</v>
       </c>
       <c r="G41" t="n">
-        <v>431.5827578370998</v>
+        <v>431.5827578371002</v>
       </c>
       <c r="H41" t="n">
-        <v>134.4230494655482</v>
+        <v>134.4230494655486</v>
       </c>
       <c r="I41" t="n">
         <v>102.1939195616892</v>
@@ -7420,16 +7420,16 @@
         <v>2135.016552941745</v>
       </c>
       <c r="M41" t="n">
-        <v>3151.211356551842</v>
+        <v>2949.866446416258</v>
       </c>
       <c r="N41" t="n">
-        <v>4139.563812481198</v>
+        <v>2949.866446416258</v>
       </c>
       <c r="O41" t="n">
-        <v>4269.847443270062</v>
+        <v>3806.438103016938</v>
       </c>
       <c r="P41" t="n">
-        <v>4987.879408059815</v>
+        <v>4524.47006780669</v>
       </c>
       <c r="Q41" t="n">
         <v>4987.879408059815</v>
@@ -7456,7 +7456,7 @@
         <v>3362.332729425942</v>
       </c>
       <c r="Y41" t="n">
-        <v>2956.995459380833</v>
+        <v>2956.995459380832</v>
       </c>
     </row>
     <row r="42">
@@ -7490,22 +7490,22 @@
         <v>110.8899249625342</v>
       </c>
       <c r="J42" t="n">
-        <v>110.8899249625342</v>
+        <v>386.0157602672283</v>
       </c>
       <c r="K42" t="n">
-        <v>110.8899249625342</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="L42" t="n">
-        <v>955.5676741332602</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="M42" t="n">
-        <v>1356.597770963786</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="N42" t="n">
-        <v>1356.597770963786</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="O42" t="n">
-        <v>1356.597770963786</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="P42" t="n">
         <v>1356.597770963786</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>633.3555459893748</v>
+        <v>763.9061783529238</v>
       </c>
       <c r="C43" t="n">
-        <v>461.3829828682908</v>
+        <v>591.9336152318398</v>
       </c>
       <c r="D43" t="n">
-        <v>298.0662099950615</v>
+        <v>591.9336152318398</v>
       </c>
       <c r="E43" t="n">
-        <v>298.0662099950615</v>
+        <v>591.9336152318398</v>
       </c>
       <c r="F43" t="n">
-        <v>245.7142171571633</v>
+        <v>420.0718410064002</v>
       </c>
       <c r="G43" t="n">
-        <v>245.7142171571633</v>
+        <v>253.8459109720033</v>
       </c>
       <c r="H43" t="n">
-        <v>102.1939195616892</v>
+        <v>110.3256133765292</v>
       </c>
       <c r="I43" t="n">
         <v>102.1939195616892</v>
@@ -7593,28 +7593,28 @@
         <v>2312.766193587243</v>
       </c>
       <c r="R43" t="n">
-        <v>2267.12323677079</v>
+        <v>2312.766193587243</v>
       </c>
       <c r="S43" t="n">
-        <v>2097.529126108273</v>
+        <v>2312.766193587243</v>
       </c>
       <c r="T43" t="n">
-        <v>1854.322402384576</v>
+        <v>2069.559469863547</v>
       </c>
       <c r="U43" t="n">
-        <v>1574.139646957864</v>
+        <v>1789.376714436835</v>
       </c>
       <c r="V43" t="n">
-        <v>1292.428179565893</v>
+        <v>1507.665247044864</v>
       </c>
       <c r="W43" t="n">
-        <v>1292.428179565893</v>
+        <v>1232.812843217377</v>
       </c>
       <c r="X43" t="n">
-        <v>1049.864283011698</v>
+        <v>990.2489466631818</v>
       </c>
       <c r="Y43" t="n">
-        <v>823.5215147014405</v>
+        <v>763.9061783529238</v>
       </c>
     </row>
     <row r="44">
@@ -7633,13 +7633,13 @@
         <v>1686.953744287602</v>
       </c>
       <c r="E44" t="n">
-        <v>1260.97680443546</v>
+        <v>1260.976804435459</v>
       </c>
       <c r="F44" t="n">
         <v>835.8526226248596</v>
       </c>
       <c r="G44" t="n">
-        <v>431.5827578370997</v>
+        <v>431.5827578370998</v>
       </c>
       <c r="H44" t="n">
         <v>134.4230494655482</v>
@@ -7651,25 +7651,25 @@
         <v>470.5535661874115</v>
       </c>
       <c r="K44" t="n">
-        <v>470.5535661874115</v>
+        <v>1194.688907550584</v>
       </c>
       <c r="L44" t="n">
-        <v>1410.881211578572</v>
+        <v>2135.016552941745</v>
       </c>
       <c r="M44" t="n">
-        <v>2427.076015188669</v>
+        <v>2949.866446416258</v>
       </c>
       <c r="N44" t="n">
-        <v>3071.683016440902</v>
+        <v>2949.866446416258</v>
       </c>
       <c r="O44" t="n">
-        <v>3928.254673041582</v>
+        <v>3806.438103016938</v>
       </c>
       <c r="P44" t="n">
-        <v>4646.286637831334</v>
+        <v>4524.47006780669</v>
       </c>
       <c r="Q44" t="n">
-        <v>5109.695978084458</v>
+        <v>4987.879408059815</v>
       </c>
       <c r="R44" t="n">
         <v>5109.695978084458</v>
@@ -7678,7 +7678,7 @@
         <v>5006.90552478696</v>
       </c>
       <c r="T44" t="n">
-        <v>4786.282866425363</v>
+        <v>4786.282866425362</v>
       </c>
       <c r="U44" t="n">
         <v>4527.933492831598</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3868.971211411933</v>
+        <v>668.9228127811953</v>
       </c>
       <c r="C45" t="n">
-        <v>3751.465307929438</v>
+        <v>551.4169092987</v>
       </c>
       <c r="D45" t="n">
-        <v>3647.625349444723</v>
+        <v>447.576950813985</v>
       </c>
       <c r="E45" t="n">
-        <v>3542.92341571766</v>
+        <v>342.8750170869222</v>
       </c>
       <c r="F45" t="n">
-        <v>3449.277585400564</v>
+        <v>249.2291867698264</v>
       </c>
       <c r="G45" t="n">
-        <v>3355.260837610401</v>
+        <v>155.2124389796627</v>
       </c>
       <c r="H45" t="n">
-        <v>3302.242318192427</v>
+        <v>102.1939195616892</v>
       </c>
       <c r="I45" t="n">
-        <v>3302.242318192427</v>
+        <v>110.8899249625342</v>
       </c>
       <c r="J45" t="n">
-        <v>3577.368153497122</v>
+        <v>386.0157602672283</v>
       </c>
       <c r="K45" t="n">
-        <v>3577.368153497122</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="L45" t="n">
-        <v>3577.368153497122</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="M45" t="n">
-        <v>3577.368153497122</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="N45" t="n">
-        <v>4676.120799749137</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="O45" t="n">
-        <v>4676.120799749137</v>
+        <v>982.3602762513898</v>
       </c>
       <c r="P45" t="n">
-        <v>4676.120799749137</v>
+        <v>1356.597770963786</v>
       </c>
       <c r="Q45" t="n">
-        <v>5025.423677593954</v>
+        <v>1825.375278963217</v>
       </c>
       <c r="R45" t="n">
-        <v>5109.695978084458</v>
+        <v>1909.647579453721</v>
       </c>
       <c r="S45" t="n">
-        <v>5029.059435062834</v>
+        <v>1829.011036432096</v>
       </c>
       <c r="T45" t="n">
-        <v>4887.328732030957</v>
+        <v>1687.28033340022</v>
       </c>
       <c r="U45" t="n">
-        <v>4702.562971739557</v>
+        <v>1502.514573108819</v>
       </c>
       <c r="V45" t="n">
-        <v>4497.589832878823</v>
+        <v>1297.541434248085</v>
       </c>
       <c r="W45" t="n">
-        <v>4301.06845571204</v>
+        <v>1101.020057081303</v>
       </c>
       <c r="X45" t="n">
-        <v>4137.591109478703</v>
+        <v>937.5427108479656</v>
       </c>
       <c r="Y45" t="n">
-        <v>3997.898220831996</v>
+        <v>797.849822201258</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3882.229247755673</v>
+        <v>1020.817811073178</v>
       </c>
       <c r="C46" t="n">
-        <v>3710.256684634589</v>
+        <v>848.8452479520942</v>
       </c>
       <c r="D46" t="n">
-        <v>3546.93991176136</v>
+        <v>848.8452479520942</v>
       </c>
       <c r="E46" t="n">
-        <v>3380.731705914213</v>
+        <v>682.6370421049477</v>
       </c>
       <c r="F46" t="n">
-        <v>3208.869931688774</v>
+        <v>510.7752678795081</v>
       </c>
       <c r="G46" t="n">
-        <v>3042.644001654377</v>
+        <v>344.5493378451113</v>
       </c>
       <c r="H46" t="n">
-        <v>2899.123704058903</v>
+        <v>201.0290402496371</v>
       </c>
       <c r="I46" t="n">
-        <v>2899.123704058903</v>
+        <v>102.1939195616892</v>
       </c>
       <c r="J46" t="n">
-        <v>2958.765866404151</v>
+        <v>161.8360819069369</v>
       </c>
       <c r="K46" t="n">
-        <v>3188.827948781073</v>
+        <v>391.8981642838589</v>
       </c>
       <c r="L46" t="n">
-        <v>3548.040189095206</v>
+        <v>751.1104045979919</v>
       </c>
       <c r="M46" t="n">
-        <v>3943.994768011702</v>
+        <v>1147.064983514488</v>
       </c>
       <c r="N46" t="n">
-        <v>4326.141671810497</v>
+        <v>1529.211887313284</v>
       </c>
       <c r="O46" t="n">
-        <v>4685.869809351609</v>
+        <v>1888.940024854395</v>
       </c>
       <c r="P46" t="n">
-        <v>4980.148421703879</v>
+        <v>2183.218637206664</v>
       </c>
       <c r="Q46" t="n">
-        <v>5109.695978084458</v>
+        <v>2312.766193587243</v>
       </c>
       <c r="R46" t="n">
-        <v>5109.695978084458</v>
+        <v>2312.766193587243</v>
       </c>
       <c r="S46" t="n">
-        <v>5109.695978084458</v>
+        <v>2143.172082924726</v>
       </c>
       <c r="T46" t="n">
-        <v>4866.489254360762</v>
+        <v>2143.172082924726</v>
       </c>
       <c r="U46" t="n">
-        <v>4586.30649893405</v>
+        <v>1862.989327498014</v>
       </c>
       <c r="V46" t="n">
-        <v>4586.30649893405</v>
+        <v>1581.277860106043</v>
       </c>
       <c r="W46" t="n">
-        <v>4311.454095106563</v>
+        <v>1453.547676339439</v>
       </c>
       <c r="X46" t="n">
-        <v>4108.572016065931</v>
+        <v>1210.983779785244</v>
       </c>
       <c r="Y46" t="n">
-        <v>3882.229247755673</v>
+        <v>1210.983779785244</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M2" t="n">
-        <v>480.1887482250049</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N2" t="n">
         <v>498.6795285947802</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>480.1484446815972</v>
       </c>
       <c r="P2" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
@@ -8063,22 +8063,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M3" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>482.7429339738759</v>
+        <v>182.1367435982027</v>
       </c>
       <c r="O3" t="n">
-        <v>183.9656051068834</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q3" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8148,7 +8148,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>402.0534574160406</v>
+        <v>385.5915703929544</v>
       </c>
       <c r="O4" t="n">
         <v>22.49918749842445</v>
@@ -8157,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>136.4406355808522</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,28 +8218,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>480.7446103807745</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P5" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>360.1383873221887</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8303,19 +8303,19 @@
         <v>483.9149924745637</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N6" t="n">
-        <v>456.5786519614261</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>458.4075134701067</v>
       </c>
       <c r="P6" t="n">
         <v>483.1707469651629</v>
       </c>
       <c r="Q6" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8376,19 +8376,19 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>233.5263615801855</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>402.0534574160406</v>
+        <v>385.5915703929544</v>
       </c>
       <c r="O7" t="n">
-        <v>381.5174992961649</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P7" t="n">
         <v>315.9153581548562</v>
@@ -8452,16 +8452,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
@@ -8470,10 +8470,10 @@
         <v>498.7908651163583</v>
       </c>
       <c r="P8" t="n">
-        <v>361.589074527822</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>455.2721730654569</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8528,25 +8528,25 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L9" t="n">
         <v>483.9149924745637</v>
       </c>
       <c r="M9" t="n">
-        <v>108.5645695103309</v>
+        <v>101.0427079326425</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -8616,10 +8616,10 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
-        <v>417.7126065281028</v>
+        <v>42.2324077072759</v>
       </c>
       <c r="N10" t="n">
         <v>402.0534574160406</v>
@@ -8631,7 +8631,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>135.694365494648</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8698,10 +8698,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>25.40227078727145</v>
       </c>
       <c r="N11" t="n">
-        <v>25.05598905398684</v>
+        <v>971.183729962225</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8710,10 +8710,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>293.4383810375268</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>30.72938207384586</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,28 +8765,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>14.91040448845136</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>17.14813855040095</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>16.48045664563446</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>14.5565603628964</v>
+        <v>392.5742317895596</v>
       </c>
       <c r="M12" t="n">
-        <v>1089.749849175</v>
+        <v>13.80955563975921</v>
       </c>
       <c r="N12" t="n">
         <v>11.8099981335961</v>
       </c>
       <c r="O12" t="n">
-        <v>14.45102962767077</v>
+        <v>14.45102962767076</v>
       </c>
       <c r="P12" t="n">
-        <v>205.9058859749593</v>
+        <v>14.771582134344</v>
       </c>
       <c r="Q12" t="n">
         <v>491.5808533018869</v>
@@ -8929,16 +8929,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>629.6586991042686</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>27.50133761253795</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>848.4829712665767</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>25.05598905398684</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
@@ -8950,7 +8950,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>30.72938207384586</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>14.91040448845136</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>17.14813855040095</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>14.5565603628964</v>
+        <v>14.55656036289639</v>
       </c>
       <c r="M15" t="n">
-        <v>13.80955563975922</v>
+        <v>13.80955563975921</v>
       </c>
       <c r="N15" t="n">
-        <v>1121.661155963915</v>
+        <v>11.8099981335961</v>
       </c>
       <c r="O15" t="n">
-        <v>127.9424414012608</v>
+        <v>14.45102962767076</v>
       </c>
       <c r="P15" t="n">
-        <v>14.771582134344</v>
+        <v>392.7892535610072</v>
       </c>
       <c r="Q15" t="n">
-        <v>18.06821895902798</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>21.39717150949669</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>575.4319701154641</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9181,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>27.72416420232772</v>
+        <v>142.4317490534179</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>28.72683546425331</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>30.72938207384586</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>14.91040448845136</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>17.14813855040095</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>14.55656036289639</v>
       </c>
       <c r="M18" t="n">
-        <v>13.80955563975922</v>
+        <v>13.80955563975921</v>
       </c>
       <c r="N18" t="n">
-        <v>11.8099981335961</v>
+        <v>389.8276695602593</v>
       </c>
       <c r="O18" t="n">
-        <v>14.45102962767077</v>
+        <v>14.45102962767076</v>
       </c>
       <c r="P18" t="n">
-        <v>384.9043040910552</v>
+        <v>14.771582134344</v>
       </c>
       <c r="Q18" t="n">
-        <v>18.06821895902798</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>21.39717150949669</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>143.7974727614629</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>27.50133761253795</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>971.5300116955096</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>25.05598905398684</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9424,7 +9424,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>30.72938207384586</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>17.14813855040095</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>16.48045664563446</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>14.5565603628964</v>
+        <v>14.55656036289639</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>13.80955563975921</v>
       </c>
       <c r="N21" t="n">
         <v>11.8099981335961</v>
       </c>
       <c r="O21" t="n">
-        <v>670.3141239719076</v>
+        <v>14.45102962767076</v>
       </c>
       <c r="P21" t="n">
-        <v>14.771582134344</v>
+        <v>392.7892535610072</v>
       </c>
       <c r="Q21" t="n">
-        <v>18.06821895902798</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9640,13 +9640,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>27.05042565574507</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>507.0625706321287</v>
+        <v>802.0721284573029</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>25.40227078727145</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9713,28 +9713,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>14.91040448845136</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>17.14813855040095</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>553.1237575383814</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>14.5565603628964</v>
+        <v>14.55656036289639</v>
       </c>
       <c r="M24" t="n">
-        <v>13.80955563975922</v>
+        <v>13.80955563975921</v>
       </c>
       <c r="N24" t="n">
         <v>11.8099981335961</v>
       </c>
       <c r="O24" t="n">
-        <v>14.45102962767077</v>
+        <v>14.45102962767076</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>392.7892535610072</v>
       </c>
       <c r="Q24" t="n">
         <v>491.5808533018869</v>
@@ -9877,16 +9877,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>678.1686087388086</v>
       </c>
       <c r="L26" t="n">
-        <v>802.0721284573048</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>25.40227078727145</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>25.05598905398684</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
@@ -9898,7 +9898,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>30.72938207384586</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>14.91040448845136</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>17.14813855040095</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>16.48045664563446</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>14.5565603628964</v>
+        <v>14.55656036289639</v>
       </c>
       <c r="M27" t="n">
-        <v>13.80955563975922</v>
+        <v>13.80955563975921</v>
       </c>
       <c r="N27" t="n">
-        <v>633.5768348753369</v>
+        <v>11.8099981335961</v>
       </c>
       <c r="O27" t="n">
-        <v>14.45102962767077</v>
+        <v>14.45102962767076</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>392.7892535610072</v>
       </c>
       <c r="Q27" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>21.39717150949669</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>23.60562836555935</v>
+        <v>343.4780063408356</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>147.6931820084415</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>25.40227078727145</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10135,7 +10135,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>30.72938207384586</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,25 +10187,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>14.91040448845136</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>17.14813855040095</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>16.48045664563446</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>14.5565603628964</v>
+        <v>392.5742317895596</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>13.80955563975921</v>
       </c>
       <c r="N30" t="n">
-        <v>202.9443019742114</v>
+        <v>11.8099981335961</v>
       </c>
       <c r="O30" t="n">
-        <v>14.45102962767077</v>
+        <v>14.45102962767076</v>
       </c>
       <c r="P30" t="n">
         <v>14.771582134344</v>
@@ -10351,25 +10351,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>27.05042565574507</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>773.9485449414033</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>25.05598905398684</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8979954188225</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>28.72683546425331</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10424,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>14.91040448845136</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>17.14813855040095</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>16.48045664563446</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>730.416170100286</v>
+        <v>14.55656036289639</v>
       </c>
       <c r="M33" t="n">
-        <v>13.80955563975922</v>
+        <v>13.80955563975921</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>11.8099981335961</v>
       </c>
       <c r="O33" t="n">
-        <v>14.45102962767077</v>
+        <v>14.45102962767076</v>
       </c>
       <c r="P33" t="n">
-        <v>14.771582134344</v>
+        <v>392.7892535610072</v>
       </c>
       <c r="Q33" t="n">
-        <v>18.06821895902798</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>21.39717150949669</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10591,10 +10591,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>802.0721284573048</v>
+        <v>27.50133761253795</v>
       </c>
       <c r="M35" t="n">
-        <v>25.40227078727145</v>
+        <v>923.0201020609704</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10609,7 +10609,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>30.72938207384586</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,25 +10661,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>14.91040448845136</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>17.14813855040095</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>16.48045664563446</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>14.5565603628964</v>
+        <v>392.5742317895596</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>13.80955563975921</v>
       </c>
       <c r="N36" t="n">
-        <v>288.0678378232054</v>
+        <v>11.8099981335961</v>
       </c>
       <c r="O36" t="n">
-        <v>14.45102962767077</v>
+        <v>14.45102962767076</v>
       </c>
       <c r="P36" t="n">
         <v>14.771582134344</v>
@@ -10688,7 +10688,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>21.39717150949669</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10898,31 +10898,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>14.91040448845136</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>17.14813855040095</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>16.48045664563446</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>847.9569946017347</v>
+        <v>14.55656036289639</v>
       </c>
       <c r="M39" t="n">
-        <v>13.80955563975922</v>
+        <v>13.80955563975921</v>
       </c>
       <c r="N39" t="n">
         <v>11.8099981335961</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>14.45102962767076</v>
       </c>
       <c r="P39" t="n">
-        <v>14.771582134344</v>
+        <v>392.7892535610072</v>
       </c>
       <c r="Q39" t="n">
-        <v>18.06821895902798</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>106.5207073584907</v>
@@ -11068,19 +11068,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>848.4829712665776</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>25.05598905398684</v>
       </c>
       <c r="O41" t="n">
-        <v>157.4481556580409</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>28.72683546425331</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11138,25 +11138,25 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>17.14813855040095</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>16.48045664563446</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>867.7664080100944</v>
+        <v>14.55656036289639</v>
       </c>
       <c r="M42" t="n">
-        <v>418.8904615291796</v>
+        <v>13.80955563975921</v>
       </c>
       <c r="N42" t="n">
         <v>11.8099981335961</v>
       </c>
       <c r="O42" t="n">
-        <v>14.45102962767077</v>
+        <v>14.45102962767076</v>
       </c>
       <c r="P42" t="n">
-        <v>14.771582134344</v>
+        <v>392.7892535610072</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
@@ -11299,16 +11299,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>27.05042565574507</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>848.4829712665776</v>
       </c>
       <c r="N44" t="n">
-        <v>676.1741721370498</v>
+        <v>25.05598905398684</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11320,7 +11320,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>30.72938207384586</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,31 +11372,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>14.91040448845136</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>16.48045664563446</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>14.5565603628964</v>
+        <v>14.55656036289639</v>
       </c>
       <c r="M45" t="n">
-        <v>13.80955563975922</v>
+        <v>13.80955563975921</v>
       </c>
       <c r="N45" t="n">
-        <v>1121.661155963915</v>
+        <v>11.8099981335961</v>
       </c>
       <c r="O45" t="n">
-        <v>14.45102962767077</v>
+        <v>14.45102962767076</v>
       </c>
       <c r="P45" t="n">
-        <v>14.771582134344</v>
+        <v>392.7892535610072</v>
       </c>
       <c r="Q45" t="n">
-        <v>370.8994087012674</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.3288902095765</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -23424,19 +23424,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5636707340529</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>46.02966037367511</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>45.18652724828859</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23655,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5636707340529</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>167.8981695558921</v>
       </c>
       <c r="T16" t="n">
-        <v>42.09034228688796</v>
+        <v>240.7746564864595</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>14.37012320729411</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>62.93167836259178</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5636707340529</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.0850946195193</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>97.84676948106851</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>45.18652724828859</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.7746564864595</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3809278724447</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>92.34941061498432</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>81.07037784972947</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>158.4952861217863</v>
       </c>
       <c r="H22" t="n">
-        <v>142.0850946195193</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>97.84676948106851</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>45.18652724828859</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>78.19031226017357</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5636707340529</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.0850946195193</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>97.84676948106851</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>45.18652724828859</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>215.9133195278893</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3809278724447</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>41.58966396781028</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5636707340529</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.0850946195193</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>97.84676948106851</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>45.18652724828859</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>167.8981695558921</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.7746564864595</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>72.48359855897536</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5636707340529</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>142.0850946195193</v>
       </c>
       <c r="I31" t="n">
-        <v>97.84676948106851</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>45.18652724828859</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>47.61669936358095</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>60.06915971841369</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>78.19031226017357</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5636707340529</v>
+        <v>96.47405022161819</v>
       </c>
       <c r="H34" t="n">
         <v>142.0850946195193</v>
       </c>
       <c r="I34" t="n">
-        <v>97.84676948106851</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>167.8981695558921</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.7746564864595</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>135.3098181169017</v>
       </c>
       <c r="G37" t="n">
-        <v>64.6354837415158</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3809278724447</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>86.13484620358859</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>45.18652724828859</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>167.8981695558921</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>240.7746564864595</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3809278724447</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>174.7786081470649</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>118.3146835736659</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5636707340529</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>97.84676948106851</v>
+        <v>89.79639260437683</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>45.18652724828859</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>167.8981695558921</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>97.84676948106851</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>45.18652724828859</v>
       </c>
       <c r="S46" t="n">
-        <v>167.8981695558921</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.7746564864595</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>145.6509978602738</v>
       </c>
       <c r="X46" t="n">
-        <v>39.28499933842761</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>661372.0122697308</v>
+        <v>661372.0122697307</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>661372.0122697308</v>
+        <v>661372.0122697307</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>661372.0122697308</v>
+        <v>661372.0122697307</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>661372.0122697308</v>
+        <v>661372.0122697307</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>661372.0122697309</v>
+        <v>661372.0122697307</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>661372.0122697309</v>
+        <v>661372.0122697307</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>661372.0122697308</v>
+        <v>661372.0122697307</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>661372.0122697309</v>
+        <v>661372.0122697307</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>661372.0122697307</v>
+        <v>661372.0122697306</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>480515.2011092096</v>
       </c>
       <c r="D2" t="n">
-        <v>480515.2011092094</v>
+        <v>480515.2011092093</v>
       </c>
       <c r="E2" t="n">
+        <v>464331.1735873494</v>
+      </c>
+      <c r="F2" t="n">
+        <v>464331.1735873492</v>
+      </c>
+      <c r="G2" t="n">
+        <v>464331.1735873492</v>
+      </c>
+      <c r="H2" t="n">
+        <v>464331.1735873493</v>
+      </c>
+      <c r="I2" t="n">
         <v>464331.1735873495</v>
       </c>
-      <c r="F2" t="n">
-        <v>464331.1735873497</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>464331.1735873495</v>
-      </c>
-      <c r="H2" t="n">
-        <v>464331.1735873498</v>
-      </c>
-      <c r="I2" t="n">
-        <v>464331.1735873497</v>
-      </c>
-      <c r="J2" t="n">
-        <v>464331.1735873499</v>
       </c>
       <c r="K2" t="n">
         <v>464331.1735873495</v>
       </c>
       <c r="L2" t="n">
+        <v>464331.1735873495</v>
+      </c>
+      <c r="M2" t="n">
+        <v>464331.1735873494</v>
+      </c>
+      <c r="N2" t="n">
         <v>464331.1735873496</v>
       </c>
-      <c r="M2" t="n">
-        <v>464331.1735873498</v>
-      </c>
-      <c r="N2" t="n">
-        <v>464331.1735873494</v>
-      </c>
       <c r="O2" t="n">
+        <v>464331.1735873495</v>
+      </c>
+      <c r="P2" t="n">
         <v>464331.1735873492</v>
-      </c>
-      <c r="P2" t="n">
-        <v>464331.1735873494</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>257337.4538130922</v>
+        <v>257337.4538130921</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>120722.516942757</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,19 +26426,19 @@
         <v>237711.9570292986</v>
       </c>
       <c r="E4" t="n">
-        <v>141558.7069348458</v>
+        <v>141558.7069348457</v>
       </c>
       <c r="F4" t="n">
         <v>141558.7069348458</v>
       </c>
       <c r="G4" t="n">
-        <v>141558.7069348458</v>
+        <v>141558.7069348457</v>
       </c>
       <c r="H4" t="n">
         <v>141558.7069348458</v>
       </c>
       <c r="I4" t="n">
-        <v>141558.7069348458</v>
+        <v>141558.7069348457</v>
       </c>
       <c r="J4" t="n">
         <v>141558.7069348458</v>
@@ -26447,7 +26447,7 @@
         <v>141558.7069348457</v>
       </c>
       <c r="L4" t="n">
-        <v>141558.7069348458</v>
+        <v>141558.7069348457</v>
       </c>
       <c r="M4" t="n">
         <v>141558.7069348458</v>
@@ -26478,40 +26478,40 @@
         <v>61680.71427022832</v>
       </c>
       <c r="E5" t="n">
-        <v>78038.86786178654</v>
+        <v>78038.86786178651</v>
       </c>
       <c r="F5" t="n">
-        <v>78038.86786178654</v>
+        <v>78038.86786178651</v>
       </c>
       <c r="G5" t="n">
-        <v>78038.86786178654</v>
+        <v>78038.86786178651</v>
       </c>
       <c r="H5" t="n">
-        <v>78038.86786178654</v>
+        <v>78038.86786178651</v>
       </c>
       <c r="I5" t="n">
-        <v>78038.86786178654</v>
+        <v>78038.86786178651</v>
       </c>
       <c r="J5" t="n">
         <v>78038.86786178654</v>
       </c>
       <c r="K5" t="n">
-        <v>78038.86786178654</v>
+        <v>78038.86786178652</v>
       </c>
       <c r="L5" t="n">
-        <v>78038.86786178654</v>
+        <v>78038.86786178651</v>
       </c>
       <c r="M5" t="n">
-        <v>78038.86786178654</v>
+        <v>78038.86786178651</v>
       </c>
       <c r="N5" t="n">
-        <v>78038.86786178652</v>
+        <v>78038.86786178651</v>
       </c>
       <c r="O5" t="n">
-        <v>78038.86786178652</v>
+        <v>78038.86786178651</v>
       </c>
       <c r="P5" t="n">
-        <v>78038.86786178652</v>
+        <v>78038.86786178651</v>
       </c>
     </row>
     <row r="6">
@@ -26530,40 +26530,40 @@
         <v>181122.5298096825</v>
       </c>
       <c r="E6" t="n">
-        <v>-12603.85502237501</v>
+        <v>-12652.89753001698</v>
       </c>
       <c r="F6" t="n">
-        <v>244733.5987907174</v>
+        <v>244684.556283075</v>
       </c>
       <c r="G6" t="n">
-        <v>244733.5987907172</v>
+        <v>244684.556283075</v>
       </c>
       <c r="H6" t="n">
-        <v>244733.5987907175</v>
+        <v>244684.556283075</v>
       </c>
       <c r="I6" t="n">
-        <v>244733.5987907174</v>
+        <v>244684.5562830753</v>
       </c>
       <c r="J6" t="n">
-        <v>124011.0818479607</v>
+        <v>123962.0393403182</v>
       </c>
       <c r="K6" t="n">
-        <v>244733.5987907173</v>
+        <v>244684.5562830753</v>
       </c>
       <c r="L6" t="n">
-        <v>244733.5987907173</v>
+        <v>244684.5562830752</v>
       </c>
       <c r="M6" t="n">
-        <v>41377.13177517598</v>
+        <v>41328.08926753366</v>
       </c>
       <c r="N6" t="n">
-        <v>244733.5987907171</v>
+        <v>244684.5562830753</v>
       </c>
       <c r="O6" t="n">
-        <v>244733.5987907169</v>
+        <v>244684.5562830752</v>
       </c>
       <c r="P6" t="n">
-        <v>244733.5987907171</v>
+        <v>244684.556283075</v>
       </c>
     </row>
   </sheetData>
@@ -26798,19 +26798,19 @@
         <v>461.3999057603342</v>
       </c>
       <c r="E4" t="n">
-        <v>1277.423994521115</v>
+        <v>1277.423994521114</v>
       </c>
       <c r="F4" t="n">
-        <v>1277.423994521115</v>
+        <v>1277.423994521114</v>
       </c>
       <c r="G4" t="n">
-        <v>1277.423994521115</v>
+        <v>1277.423994521114</v>
       </c>
       <c r="H4" t="n">
-        <v>1277.423994521115</v>
+        <v>1277.423994521114</v>
       </c>
       <c r="I4" t="n">
-        <v>1277.423994521115</v>
+        <v>1277.423994521114</v>
       </c>
       <c r="J4" t="n">
         <v>1277.423994521115</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>816.0240887607804</v>
+        <v>816.0240887607802</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603346</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>816.0240887607803</v>
+        <v>816.0240887607802</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>816.0240887607804</v>
+        <v>816.0240887607802</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>42.66627575736721</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>50.23883955471069</v>
       </c>
     </row>
     <row r="3">
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>260.4053041495043</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>187.9884835801962</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>345.4883608353617</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>213.4027168294475</v>
-      </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>75.27659156776596</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>261.508480022618</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27864,7 +27864,7 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>194.467479245159</v>
+        <v>258.4978630555178</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>75.51675116363876</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,16 +28061,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.2073593222537</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31752,19 +31752,19 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06850564656359785</v>
+        <v>0.06850564656359787</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7015834528694467</v>
+        <v>0.7015834528694468</v>
       </c>
       <c r="I11" t="n">
         <v>2.641063939143109</v>
       </c>
       <c r="J11" t="n">
-        <v>5.814331120027168</v>
+        <v>5.81433112002717</v>
       </c>
       <c r="K11" t="n">
-        <v>8.714175139064267</v>
+        <v>8.714175139064269</v>
       </c>
       <c r="L11" t="n">
         <v>10.81070482008498</v>
@@ -31779,13 +31779,13 @@
         <v>11.54243075744241</v>
       </c>
       <c r="P11" t="n">
-        <v>9.851197607903583</v>
+        <v>9.851197607903584</v>
       </c>
       <c r="Q11" t="n">
-        <v>7.397839140344732</v>
+        <v>7.397839140344733</v>
       </c>
       <c r="R11" t="n">
-        <v>4.303267820950607</v>
+        <v>4.303267820950608</v>
       </c>
       <c r="S11" t="n">
         <v>1.561072421067988</v>
@@ -31794,7 +31794,7 @@
         <v>0.2998834678321498</v>
       </c>
       <c r="U11" t="n">
-        <v>0.005480451725087826</v>
+        <v>0.005480451725087827</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03665375230994769</v>
+        <v>0.0366537523099477</v>
       </c>
       <c r="H12" t="n">
-        <v>0.353998081519758</v>
+        <v>0.3539980815197581</v>
       </c>
       <c r="I12" t="n">
         <v>1.261982261548638</v>
       </c>
       <c r="J12" t="n">
-        <v>3.462975782932383</v>
+        <v>3.462975782932384</v>
       </c>
       <c r="K12" t="n">
-        <v>5.918777187698877</v>
+        <v>5.918777187698879</v>
       </c>
       <c r="L12" t="n">
-        <v>7.95852635133316</v>
+        <v>7.958526351333162</v>
       </c>
       <c r="M12" t="n">
-        <v>9.287224872568762</v>
+        <v>9.287224872568764</v>
       </c>
       <c r="N12" t="n">
-        <v>9.533030079945561</v>
+        <v>9.533030079945563</v>
       </c>
       <c r="O12" t="n">
-        <v>8.720860094551456</v>
+        <v>8.720860094551458</v>
       </c>
       <c r="P12" t="n">
-        <v>6.99925907048466</v>
+        <v>6.999259070484662</v>
       </c>
       <c r="Q12" t="n">
-        <v>4.678819329950516</v>
+        <v>4.678819329950517</v>
       </c>
       <c r="R12" t="n">
         <v>2.275747884647455</v>
       </c>
       <c r="S12" t="n">
-        <v>0.6808273729501244</v>
+        <v>0.6808273729501245</v>
       </c>
       <c r="T12" t="n">
         <v>0.1477403437405347</v>
       </c>
       <c r="U12" t="n">
-        <v>0.002411431073022875</v>
+        <v>0.002411431073022876</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,28 +31913,28 @@
         <v>0.03072927465731881</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2732111874077983</v>
+        <v>0.2732111874077984</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9241130960582786</v>
+        <v>0.9241130960582788</v>
       </c>
       <c r="J13" t="n">
-        <v>2.172559718272439</v>
+        <v>2.17255971827244</v>
       </c>
       <c r="K13" t="n">
-        <v>3.570183001095766</v>
+        <v>3.570183001095767</v>
       </c>
       <c r="L13" t="n">
-        <v>4.568605070416289</v>
+        <v>4.56860507041629</v>
       </c>
       <c r="M13" t="n">
-        <v>4.816953481055892</v>
+        <v>4.816953481055894</v>
       </c>
       <c r="N13" t="n">
-        <v>4.702417093696798</v>
+        <v>4.702417093696799</v>
       </c>
       <c r="O13" t="n">
-        <v>4.343443294290846</v>
+        <v>4.343443294290847</v>
       </c>
       <c r="P13" t="n">
         <v>3.716566091281539</v>
@@ -31946,13 +31946,13 @@
         <v>1.381699931409989</v>
       </c>
       <c r="S13" t="n">
-        <v>0.5355274501643649</v>
+        <v>0.535527450164365</v>
       </c>
       <c r="T13" t="n">
         <v>0.1312978098994531</v>
       </c>
       <c r="U13" t="n">
-        <v>0.001676142254035573</v>
+        <v>0.001676142254035574</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,19 +31989,19 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.06850564656359785</v>
+        <v>0.06850564656359787</v>
       </c>
       <c r="H14" t="n">
-        <v>0.7015834528694467</v>
+        <v>0.7015834528694468</v>
       </c>
       <c r="I14" t="n">
         <v>2.641063939143109</v>
       </c>
       <c r="J14" t="n">
-        <v>5.814331120027168</v>
+        <v>5.81433112002717</v>
       </c>
       <c r="K14" t="n">
-        <v>8.714175139064267</v>
+        <v>8.714175139064269</v>
       </c>
       <c r="L14" t="n">
         <v>10.81070482008498</v>
@@ -32016,13 +32016,13 @@
         <v>11.54243075744241</v>
       </c>
       <c r="P14" t="n">
-        <v>9.851197607903583</v>
+        <v>9.851197607903584</v>
       </c>
       <c r="Q14" t="n">
-        <v>7.397839140344732</v>
+        <v>7.397839140344733</v>
       </c>
       <c r="R14" t="n">
-        <v>4.303267820950607</v>
+        <v>4.303267820950608</v>
       </c>
       <c r="S14" t="n">
         <v>1.561072421067988</v>
@@ -32031,7 +32031,7 @@
         <v>0.2998834678321498</v>
       </c>
       <c r="U14" t="n">
-        <v>0.005480451725087826</v>
+        <v>0.005480451725087827</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03665375230994769</v>
+        <v>0.0366537523099477</v>
       </c>
       <c r="H15" t="n">
-        <v>0.353998081519758</v>
+        <v>0.3539980815197581</v>
       </c>
       <c r="I15" t="n">
         <v>1.261982261548638</v>
       </c>
       <c r="J15" t="n">
-        <v>3.462975782932383</v>
+        <v>3.462975782932384</v>
       </c>
       <c r="K15" t="n">
-        <v>5.918777187698877</v>
+        <v>5.918777187698879</v>
       </c>
       <c r="L15" t="n">
-        <v>7.95852635133316</v>
+        <v>7.958526351333162</v>
       </c>
       <c r="M15" t="n">
-        <v>9.287224872568762</v>
+        <v>9.287224872568764</v>
       </c>
       <c r="N15" t="n">
-        <v>9.533030079945561</v>
+        <v>9.533030079945563</v>
       </c>
       <c r="O15" t="n">
-        <v>8.720860094551456</v>
+        <v>8.720860094551458</v>
       </c>
       <c r="P15" t="n">
-        <v>6.99925907048466</v>
+        <v>6.999259070484662</v>
       </c>
       <c r="Q15" t="n">
-        <v>4.678819329950516</v>
+        <v>4.678819329950517</v>
       </c>
       <c r="R15" t="n">
         <v>2.275747884647455</v>
       </c>
       <c r="S15" t="n">
-        <v>0.6808273729501244</v>
+        <v>0.6808273729501245</v>
       </c>
       <c r="T15" t="n">
         <v>0.1477403437405347</v>
       </c>
       <c r="U15" t="n">
-        <v>0.002411431073022875</v>
+        <v>0.002411431073022876</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,28 +32150,28 @@
         <v>0.03072927465731881</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2732111874077983</v>
+        <v>0.2732111874077984</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9241130960582786</v>
+        <v>0.9241130960582788</v>
       </c>
       <c r="J16" t="n">
-        <v>2.172559718272439</v>
+        <v>2.17255971827244</v>
       </c>
       <c r="K16" t="n">
-        <v>3.570183001095766</v>
+        <v>3.570183001095767</v>
       </c>
       <c r="L16" t="n">
-        <v>4.568605070416289</v>
+        <v>4.56860507041629</v>
       </c>
       <c r="M16" t="n">
-        <v>4.816953481055892</v>
+        <v>4.816953481055894</v>
       </c>
       <c r="N16" t="n">
-        <v>4.702417093696798</v>
+        <v>4.702417093696799</v>
       </c>
       <c r="O16" t="n">
-        <v>4.343443294290846</v>
+        <v>4.343443294290847</v>
       </c>
       <c r="P16" t="n">
         <v>3.716566091281539</v>
@@ -32183,13 +32183,13 @@
         <v>1.381699931409989</v>
       </c>
       <c r="S16" t="n">
-        <v>0.5355274501643649</v>
+        <v>0.535527450164365</v>
       </c>
       <c r="T16" t="n">
         <v>0.1312978098994531</v>
       </c>
       <c r="U16" t="n">
-        <v>0.001676142254035573</v>
+        <v>0.001676142254035574</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,19 +32226,19 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.06850564656359785</v>
+        <v>0.06850564656359787</v>
       </c>
       <c r="H17" t="n">
-        <v>0.7015834528694467</v>
+        <v>0.7015834528694468</v>
       </c>
       <c r="I17" t="n">
         <v>2.641063939143109</v>
       </c>
       <c r="J17" t="n">
-        <v>5.814331120027168</v>
+        <v>5.81433112002717</v>
       </c>
       <c r="K17" t="n">
-        <v>8.714175139064267</v>
+        <v>8.714175139064269</v>
       </c>
       <c r="L17" t="n">
         <v>10.81070482008498</v>
@@ -32253,13 +32253,13 @@
         <v>11.54243075744241</v>
       </c>
       <c r="P17" t="n">
-        <v>9.851197607903583</v>
+        <v>9.851197607903584</v>
       </c>
       <c r="Q17" t="n">
-        <v>7.397839140344732</v>
+        <v>7.397839140344733</v>
       </c>
       <c r="R17" t="n">
-        <v>4.303267820950607</v>
+        <v>4.303267820950608</v>
       </c>
       <c r="S17" t="n">
         <v>1.561072421067988</v>
@@ -32268,7 +32268,7 @@
         <v>0.2998834678321498</v>
       </c>
       <c r="U17" t="n">
-        <v>0.005480451725087826</v>
+        <v>0.005480451725087827</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03665375230994769</v>
+        <v>0.0366537523099477</v>
       </c>
       <c r="H18" t="n">
-        <v>0.353998081519758</v>
+        <v>0.3539980815197581</v>
       </c>
       <c r="I18" t="n">
         <v>1.261982261548638</v>
       </c>
       <c r="J18" t="n">
-        <v>3.462975782932383</v>
+        <v>3.462975782932384</v>
       </c>
       <c r="K18" t="n">
-        <v>5.918777187698877</v>
+        <v>5.918777187698879</v>
       </c>
       <c r="L18" t="n">
-        <v>7.95852635133316</v>
+        <v>7.958526351333162</v>
       </c>
       <c r="M18" t="n">
-        <v>9.287224872568762</v>
+        <v>9.287224872568764</v>
       </c>
       <c r="N18" t="n">
-        <v>9.533030079945561</v>
+        <v>9.533030079945563</v>
       </c>
       <c r="O18" t="n">
-        <v>8.720860094551456</v>
+        <v>8.720860094551458</v>
       </c>
       <c r="P18" t="n">
-        <v>6.99925907048466</v>
+        <v>6.999259070484662</v>
       </c>
       <c r="Q18" t="n">
-        <v>4.678819329950516</v>
+        <v>4.678819329950517</v>
       </c>
       <c r="R18" t="n">
         <v>2.275747884647455</v>
       </c>
       <c r="S18" t="n">
-        <v>0.6808273729501244</v>
+        <v>0.6808273729501245</v>
       </c>
       <c r="T18" t="n">
         <v>0.1477403437405347</v>
       </c>
       <c r="U18" t="n">
-        <v>0.002411431073022875</v>
+        <v>0.002411431073022876</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,28 +32387,28 @@
         <v>0.03072927465731881</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2732111874077983</v>
+        <v>0.2732111874077984</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9241130960582786</v>
+        <v>0.9241130960582788</v>
       </c>
       <c r="J19" t="n">
-        <v>2.172559718272439</v>
+        <v>2.17255971827244</v>
       </c>
       <c r="K19" t="n">
-        <v>3.570183001095766</v>
+        <v>3.570183001095767</v>
       </c>
       <c r="L19" t="n">
-        <v>4.568605070416289</v>
+        <v>4.56860507041629</v>
       </c>
       <c r="M19" t="n">
-        <v>4.816953481055892</v>
+        <v>4.816953481055894</v>
       </c>
       <c r="N19" t="n">
-        <v>4.702417093696798</v>
+        <v>4.702417093696799</v>
       </c>
       <c r="O19" t="n">
-        <v>4.343443294290846</v>
+        <v>4.343443294290847</v>
       </c>
       <c r="P19" t="n">
         <v>3.716566091281539</v>
@@ -32420,13 +32420,13 @@
         <v>1.381699931409989</v>
       </c>
       <c r="S19" t="n">
-        <v>0.5355274501643649</v>
+        <v>0.535527450164365</v>
       </c>
       <c r="T19" t="n">
         <v>0.1312978098994531</v>
       </c>
       <c r="U19" t="n">
-        <v>0.001676142254035573</v>
+        <v>0.001676142254035574</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,19 +32463,19 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06850564656359785</v>
+        <v>0.06850564656359787</v>
       </c>
       <c r="H20" t="n">
-        <v>0.7015834528694467</v>
+        <v>0.7015834528694468</v>
       </c>
       <c r="I20" t="n">
         <v>2.641063939143109</v>
       </c>
       <c r="J20" t="n">
-        <v>5.814331120027168</v>
+        <v>5.81433112002717</v>
       </c>
       <c r="K20" t="n">
-        <v>8.714175139064267</v>
+        <v>8.714175139064269</v>
       </c>
       <c r="L20" t="n">
         <v>10.81070482008498</v>
@@ -32490,13 +32490,13 @@
         <v>11.54243075744241</v>
       </c>
       <c r="P20" t="n">
-        <v>9.851197607903583</v>
+        <v>9.851197607903584</v>
       </c>
       <c r="Q20" t="n">
-        <v>7.397839140344732</v>
+        <v>7.397839140344733</v>
       </c>
       <c r="R20" t="n">
-        <v>4.303267820950607</v>
+        <v>4.303267820950608</v>
       </c>
       <c r="S20" t="n">
         <v>1.561072421067988</v>
@@ -32505,7 +32505,7 @@
         <v>0.2998834678321498</v>
       </c>
       <c r="U20" t="n">
-        <v>0.005480451725087826</v>
+        <v>0.005480451725087827</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03665375230994769</v>
+        <v>0.0366537523099477</v>
       </c>
       <c r="H21" t="n">
-        <v>0.353998081519758</v>
+        <v>0.3539980815197581</v>
       </c>
       <c r="I21" t="n">
         <v>1.261982261548638</v>
       </c>
       <c r="J21" t="n">
-        <v>3.462975782932383</v>
+        <v>3.462975782932384</v>
       </c>
       <c r="K21" t="n">
-        <v>5.918777187698877</v>
+        <v>5.918777187698879</v>
       </c>
       <c r="L21" t="n">
-        <v>7.95852635133316</v>
+        <v>7.958526351333162</v>
       </c>
       <c r="M21" t="n">
-        <v>9.287224872568762</v>
+        <v>9.287224872568764</v>
       </c>
       <c r="N21" t="n">
-        <v>9.533030079945561</v>
+        <v>9.533030079945563</v>
       </c>
       <c r="O21" t="n">
-        <v>8.720860094551456</v>
+        <v>8.720860094551458</v>
       </c>
       <c r="P21" t="n">
-        <v>6.99925907048466</v>
+        <v>6.999259070484662</v>
       </c>
       <c r="Q21" t="n">
-        <v>4.678819329950516</v>
+        <v>4.678819329950517</v>
       </c>
       <c r="R21" t="n">
         <v>2.275747884647455</v>
       </c>
       <c r="S21" t="n">
-        <v>0.6808273729501244</v>
+        <v>0.6808273729501245</v>
       </c>
       <c r="T21" t="n">
         <v>0.1477403437405347</v>
       </c>
       <c r="U21" t="n">
-        <v>0.002411431073022875</v>
+        <v>0.002411431073022876</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,28 +32624,28 @@
         <v>0.03072927465731881</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2732111874077983</v>
+        <v>0.2732111874077984</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9241130960582786</v>
+        <v>0.9241130960582788</v>
       </c>
       <c r="J22" t="n">
-        <v>2.172559718272439</v>
+        <v>2.17255971827244</v>
       </c>
       <c r="K22" t="n">
-        <v>3.570183001095766</v>
+        <v>3.570183001095767</v>
       </c>
       <c r="L22" t="n">
-        <v>4.568605070416289</v>
+        <v>4.56860507041629</v>
       </c>
       <c r="M22" t="n">
-        <v>4.816953481055892</v>
+        <v>4.816953481055894</v>
       </c>
       <c r="N22" t="n">
-        <v>4.702417093696798</v>
+        <v>4.702417093696799</v>
       </c>
       <c r="O22" t="n">
-        <v>4.343443294290846</v>
+        <v>4.343443294290847</v>
       </c>
       <c r="P22" t="n">
         <v>3.716566091281539</v>
@@ -32657,13 +32657,13 @@
         <v>1.381699931409989</v>
       </c>
       <c r="S22" t="n">
-        <v>0.5355274501643649</v>
+        <v>0.535527450164365</v>
       </c>
       <c r="T22" t="n">
         <v>0.1312978098994531</v>
       </c>
       <c r="U22" t="n">
-        <v>0.001676142254035573</v>
+        <v>0.001676142254035574</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,19 +32700,19 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06850564656359785</v>
+        <v>0.06850564656359787</v>
       </c>
       <c r="H23" t="n">
-        <v>0.7015834528694467</v>
+        <v>0.7015834528694468</v>
       </c>
       <c r="I23" t="n">
         <v>2.641063939143109</v>
       </c>
       <c r="J23" t="n">
-        <v>5.814331120027168</v>
+        <v>5.81433112002717</v>
       </c>
       <c r="K23" t="n">
-        <v>8.714175139064267</v>
+        <v>8.714175139064269</v>
       </c>
       <c r="L23" t="n">
         <v>10.81070482008498</v>
@@ -32727,13 +32727,13 @@
         <v>11.54243075744241</v>
       </c>
       <c r="P23" t="n">
-        <v>9.851197607903583</v>
+        <v>9.851197607903584</v>
       </c>
       <c r="Q23" t="n">
-        <v>7.397839140344732</v>
+        <v>7.397839140344733</v>
       </c>
       <c r="R23" t="n">
-        <v>4.303267820950607</v>
+        <v>4.303267820950608</v>
       </c>
       <c r="S23" t="n">
         <v>1.561072421067988</v>
@@ -32742,7 +32742,7 @@
         <v>0.2998834678321498</v>
       </c>
       <c r="U23" t="n">
-        <v>0.005480451725087826</v>
+        <v>0.005480451725087827</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03665375230994769</v>
+        <v>0.0366537523099477</v>
       </c>
       <c r="H24" t="n">
-        <v>0.353998081519758</v>
+        <v>0.3539980815197581</v>
       </c>
       <c r="I24" t="n">
         <v>1.261982261548638</v>
       </c>
       <c r="J24" t="n">
-        <v>3.462975782932383</v>
+        <v>3.462975782932384</v>
       </c>
       <c r="K24" t="n">
-        <v>5.918777187698877</v>
+        <v>5.918777187698879</v>
       </c>
       <c r="L24" t="n">
-        <v>7.95852635133316</v>
+        <v>7.958526351333162</v>
       </c>
       <c r="M24" t="n">
-        <v>9.287224872568762</v>
+        <v>9.287224872568764</v>
       </c>
       <c r="N24" t="n">
-        <v>9.533030079945561</v>
+        <v>9.533030079945563</v>
       </c>
       <c r="O24" t="n">
-        <v>8.720860094551456</v>
+        <v>8.720860094551458</v>
       </c>
       <c r="P24" t="n">
-        <v>6.99925907048466</v>
+        <v>6.999259070484662</v>
       </c>
       <c r="Q24" t="n">
-        <v>4.678819329950516</v>
+        <v>4.678819329950517</v>
       </c>
       <c r="R24" t="n">
         <v>2.275747884647455</v>
       </c>
       <c r="S24" t="n">
-        <v>0.6808273729501244</v>
+        <v>0.6808273729501245</v>
       </c>
       <c r="T24" t="n">
         <v>0.1477403437405347</v>
       </c>
       <c r="U24" t="n">
-        <v>0.002411431073022875</v>
+        <v>0.002411431073022876</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,28 +32861,28 @@
         <v>0.03072927465731881</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2732111874077983</v>
+        <v>0.2732111874077984</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9241130960582786</v>
+        <v>0.9241130960582788</v>
       </c>
       <c r="J25" t="n">
-        <v>2.172559718272439</v>
+        <v>2.17255971827244</v>
       </c>
       <c r="K25" t="n">
-        <v>3.570183001095766</v>
+        <v>3.570183001095767</v>
       </c>
       <c r="L25" t="n">
-        <v>4.568605070416289</v>
+        <v>4.56860507041629</v>
       </c>
       <c r="M25" t="n">
-        <v>4.816953481055892</v>
+        <v>4.816953481055894</v>
       </c>
       <c r="N25" t="n">
-        <v>4.702417093696798</v>
+        <v>4.702417093696799</v>
       </c>
       <c r="O25" t="n">
-        <v>4.343443294290846</v>
+        <v>4.343443294290847</v>
       </c>
       <c r="P25" t="n">
         <v>3.716566091281539</v>
@@ -32894,13 +32894,13 @@
         <v>1.381699931409989</v>
       </c>
       <c r="S25" t="n">
-        <v>0.5355274501643649</v>
+        <v>0.535527450164365</v>
       </c>
       <c r="T25" t="n">
         <v>0.1312978098994531</v>
       </c>
       <c r="U25" t="n">
-        <v>0.001676142254035573</v>
+        <v>0.001676142254035574</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,19 +32937,19 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.06850564656359785</v>
+        <v>0.06850564656359787</v>
       </c>
       <c r="H26" t="n">
-        <v>0.7015834528694467</v>
+        <v>0.7015834528694468</v>
       </c>
       <c r="I26" t="n">
         <v>2.641063939143109</v>
       </c>
       <c r="J26" t="n">
-        <v>5.814331120027168</v>
+        <v>5.81433112002717</v>
       </c>
       <c r="K26" t="n">
-        <v>8.714175139064267</v>
+        <v>8.714175139064269</v>
       </c>
       <c r="L26" t="n">
         <v>10.81070482008498</v>
@@ -32964,13 +32964,13 @@
         <v>11.54243075744241</v>
       </c>
       <c r="P26" t="n">
-        <v>9.851197607903583</v>
+        <v>9.851197607903584</v>
       </c>
       <c r="Q26" t="n">
-        <v>7.397839140344732</v>
+        <v>7.397839140344733</v>
       </c>
       <c r="R26" t="n">
-        <v>4.303267820950607</v>
+        <v>4.303267820950608</v>
       </c>
       <c r="S26" t="n">
         <v>1.561072421067988</v>
@@ -32979,7 +32979,7 @@
         <v>0.2998834678321498</v>
       </c>
       <c r="U26" t="n">
-        <v>0.005480451725087826</v>
+        <v>0.005480451725087827</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.03665375230994769</v>
+        <v>0.0366537523099477</v>
       </c>
       <c r="H27" t="n">
-        <v>0.353998081519758</v>
+        <v>0.3539980815197581</v>
       </c>
       <c r="I27" t="n">
         <v>1.261982261548638</v>
       </c>
       <c r="J27" t="n">
-        <v>3.462975782932383</v>
+        <v>3.462975782932384</v>
       </c>
       <c r="K27" t="n">
-        <v>5.918777187698877</v>
+        <v>5.918777187698879</v>
       </c>
       <c r="L27" t="n">
-        <v>7.95852635133316</v>
+        <v>7.958526351333162</v>
       </c>
       <c r="M27" t="n">
-        <v>9.287224872568762</v>
+        <v>9.287224872568764</v>
       </c>
       <c r="N27" t="n">
-        <v>9.533030079945561</v>
+        <v>9.533030079945563</v>
       </c>
       <c r="O27" t="n">
-        <v>8.720860094551456</v>
+        <v>8.720860094551458</v>
       </c>
       <c r="P27" t="n">
-        <v>6.99925907048466</v>
+        <v>6.999259070484662</v>
       </c>
       <c r="Q27" t="n">
-        <v>4.678819329950516</v>
+        <v>4.678819329950517</v>
       </c>
       <c r="R27" t="n">
         <v>2.275747884647455</v>
       </c>
       <c r="S27" t="n">
-        <v>0.6808273729501244</v>
+        <v>0.6808273729501245</v>
       </c>
       <c r="T27" t="n">
         <v>0.1477403437405347</v>
       </c>
       <c r="U27" t="n">
-        <v>0.002411431073022875</v>
+        <v>0.002411431073022876</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,28 +33098,28 @@
         <v>0.03072927465731881</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2732111874077983</v>
+        <v>0.2732111874077984</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9241130960582786</v>
+        <v>0.9241130960582788</v>
       </c>
       <c r="J28" t="n">
-        <v>2.172559718272439</v>
+        <v>2.17255971827244</v>
       </c>
       <c r="K28" t="n">
-        <v>3.570183001095766</v>
+        <v>3.570183001095767</v>
       </c>
       <c r="L28" t="n">
-        <v>4.568605070416289</v>
+        <v>4.56860507041629</v>
       </c>
       <c r="M28" t="n">
-        <v>4.816953481055892</v>
+        <v>4.816953481055894</v>
       </c>
       <c r="N28" t="n">
-        <v>4.702417093696798</v>
+        <v>4.702417093696799</v>
       </c>
       <c r="O28" t="n">
-        <v>4.343443294290846</v>
+        <v>4.343443294290847</v>
       </c>
       <c r="P28" t="n">
         <v>3.716566091281539</v>
@@ -33131,13 +33131,13 @@
         <v>1.381699931409989</v>
       </c>
       <c r="S28" t="n">
-        <v>0.5355274501643649</v>
+        <v>0.535527450164365</v>
       </c>
       <c r="T28" t="n">
         <v>0.1312978098994531</v>
       </c>
       <c r="U28" t="n">
-        <v>0.001676142254035573</v>
+        <v>0.001676142254035574</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,19 +33174,19 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.06850564656359785</v>
+        <v>0.06850564656359787</v>
       </c>
       <c r="H29" t="n">
-        <v>0.7015834528694467</v>
+        <v>0.7015834528694468</v>
       </c>
       <c r="I29" t="n">
         <v>2.641063939143109</v>
       </c>
       <c r="J29" t="n">
-        <v>5.814331120027168</v>
+        <v>5.81433112002717</v>
       </c>
       <c r="K29" t="n">
-        <v>8.714175139064267</v>
+        <v>8.714175139064269</v>
       </c>
       <c r="L29" t="n">
         <v>10.81070482008498</v>
@@ -33201,13 +33201,13 @@
         <v>11.54243075744241</v>
       </c>
       <c r="P29" t="n">
-        <v>9.851197607903583</v>
+        <v>9.851197607903584</v>
       </c>
       <c r="Q29" t="n">
-        <v>7.397839140344732</v>
+        <v>7.397839140344733</v>
       </c>
       <c r="R29" t="n">
-        <v>4.303267820950607</v>
+        <v>4.303267820950608</v>
       </c>
       <c r="S29" t="n">
         <v>1.561072421067988</v>
@@ -33216,7 +33216,7 @@
         <v>0.2998834678321498</v>
       </c>
       <c r="U29" t="n">
-        <v>0.005480451725087826</v>
+        <v>0.005480451725087827</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03665375230994769</v>
+        <v>0.0366537523099477</v>
       </c>
       <c r="H30" t="n">
-        <v>0.353998081519758</v>
+        <v>0.3539980815197581</v>
       </c>
       <c r="I30" t="n">
         <v>1.261982261548638</v>
       </c>
       <c r="J30" t="n">
-        <v>3.462975782932383</v>
+        <v>3.462975782932384</v>
       </c>
       <c r="K30" t="n">
-        <v>5.918777187698877</v>
+        <v>5.918777187698879</v>
       </c>
       <c r="L30" t="n">
-        <v>7.95852635133316</v>
+        <v>7.958526351333162</v>
       </c>
       <c r="M30" t="n">
-        <v>9.287224872568762</v>
+        <v>9.287224872568764</v>
       </c>
       <c r="N30" t="n">
-        <v>9.533030079945561</v>
+        <v>9.533030079945563</v>
       </c>
       <c r="O30" t="n">
-        <v>8.720860094551456</v>
+        <v>8.720860094551458</v>
       </c>
       <c r="P30" t="n">
-        <v>6.99925907048466</v>
+        <v>6.999259070484662</v>
       </c>
       <c r="Q30" t="n">
-        <v>4.678819329950516</v>
+        <v>4.678819329950517</v>
       </c>
       <c r="R30" t="n">
         <v>2.275747884647455</v>
       </c>
       <c r="S30" t="n">
-        <v>0.6808273729501244</v>
+        <v>0.6808273729501245</v>
       </c>
       <c r="T30" t="n">
         <v>0.1477403437405347</v>
       </c>
       <c r="U30" t="n">
-        <v>0.002411431073022875</v>
+        <v>0.002411431073022876</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,28 +33335,28 @@
         <v>0.03072927465731881</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2732111874077983</v>
+        <v>0.2732111874077984</v>
       </c>
       <c r="I31" t="n">
-        <v>0.9241130960582786</v>
+        <v>0.9241130960582788</v>
       </c>
       <c r="J31" t="n">
-        <v>2.172559718272439</v>
+        <v>2.17255971827244</v>
       </c>
       <c r="K31" t="n">
-        <v>3.570183001095766</v>
+        <v>3.570183001095767</v>
       </c>
       <c r="L31" t="n">
-        <v>4.568605070416289</v>
+        <v>4.56860507041629</v>
       </c>
       <c r="M31" t="n">
-        <v>4.816953481055892</v>
+        <v>4.816953481055894</v>
       </c>
       <c r="N31" t="n">
-        <v>4.702417093696798</v>
+        <v>4.702417093696799</v>
       </c>
       <c r="O31" t="n">
-        <v>4.343443294290846</v>
+        <v>4.343443294290847</v>
       </c>
       <c r="P31" t="n">
         <v>3.716566091281539</v>
@@ -33368,13 +33368,13 @@
         <v>1.381699931409989</v>
       </c>
       <c r="S31" t="n">
-        <v>0.5355274501643649</v>
+        <v>0.535527450164365</v>
       </c>
       <c r="T31" t="n">
         <v>0.1312978098994531</v>
       </c>
       <c r="U31" t="n">
-        <v>0.001676142254035573</v>
+        <v>0.001676142254035574</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,19 +33411,19 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.06850564656359785</v>
+        <v>0.06850564656359787</v>
       </c>
       <c r="H32" t="n">
-        <v>0.7015834528694467</v>
+        <v>0.7015834528694468</v>
       </c>
       <c r="I32" t="n">
         <v>2.641063939143109</v>
       </c>
       <c r="J32" t="n">
-        <v>5.814331120027168</v>
+        <v>5.81433112002717</v>
       </c>
       <c r="K32" t="n">
-        <v>8.714175139064267</v>
+        <v>8.714175139064269</v>
       </c>
       <c r="L32" t="n">
         <v>10.81070482008498</v>
@@ -33438,13 +33438,13 @@
         <v>11.54243075744241</v>
       </c>
       <c r="P32" t="n">
-        <v>9.851197607903583</v>
+        <v>9.851197607903584</v>
       </c>
       <c r="Q32" t="n">
-        <v>7.397839140344732</v>
+        <v>7.397839140344733</v>
       </c>
       <c r="R32" t="n">
-        <v>4.303267820950607</v>
+        <v>4.303267820950608</v>
       </c>
       <c r="S32" t="n">
         <v>1.561072421067988</v>
@@ -33453,7 +33453,7 @@
         <v>0.2998834678321498</v>
       </c>
       <c r="U32" t="n">
-        <v>0.005480451725087826</v>
+        <v>0.005480451725087827</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03665375230994769</v>
+        <v>0.0366537523099477</v>
       </c>
       <c r="H33" t="n">
-        <v>0.353998081519758</v>
+        <v>0.3539980815197581</v>
       </c>
       <c r="I33" t="n">
         <v>1.261982261548638</v>
       </c>
       <c r="J33" t="n">
-        <v>3.462975782932383</v>
+        <v>3.462975782932384</v>
       </c>
       <c r="K33" t="n">
-        <v>5.918777187698877</v>
+        <v>5.918777187698879</v>
       </c>
       <c r="L33" t="n">
-        <v>7.95852635133316</v>
+        <v>7.958526351333162</v>
       </c>
       <c r="M33" t="n">
-        <v>9.287224872568762</v>
+        <v>9.287224872568764</v>
       </c>
       <c r="N33" t="n">
-        <v>9.533030079945561</v>
+        <v>9.533030079945563</v>
       </c>
       <c r="O33" t="n">
-        <v>8.720860094551456</v>
+        <v>8.720860094551458</v>
       </c>
       <c r="P33" t="n">
-        <v>6.99925907048466</v>
+        <v>6.999259070484662</v>
       </c>
       <c r="Q33" t="n">
-        <v>4.678819329950516</v>
+        <v>4.678819329950517</v>
       </c>
       <c r="R33" t="n">
         <v>2.275747884647455</v>
       </c>
       <c r="S33" t="n">
-        <v>0.6808273729501244</v>
+        <v>0.6808273729501245</v>
       </c>
       <c r="T33" t="n">
         <v>0.1477403437405347</v>
       </c>
       <c r="U33" t="n">
-        <v>0.002411431073022875</v>
+        <v>0.002411431073022876</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,28 +33572,28 @@
         <v>0.03072927465731881</v>
       </c>
       <c r="H34" t="n">
-        <v>0.2732111874077983</v>
+        <v>0.2732111874077984</v>
       </c>
       <c r="I34" t="n">
-        <v>0.9241130960582786</v>
+        <v>0.9241130960582788</v>
       </c>
       <c r="J34" t="n">
-        <v>2.172559718272439</v>
+        <v>2.17255971827244</v>
       </c>
       <c r="K34" t="n">
-        <v>3.570183001095766</v>
+        <v>3.570183001095767</v>
       </c>
       <c r="L34" t="n">
-        <v>4.568605070416289</v>
+        <v>4.56860507041629</v>
       </c>
       <c r="M34" t="n">
-        <v>4.816953481055892</v>
+        <v>4.816953481055894</v>
       </c>
       <c r="N34" t="n">
-        <v>4.702417093696798</v>
+        <v>4.702417093696799</v>
       </c>
       <c r="O34" t="n">
-        <v>4.343443294290846</v>
+        <v>4.343443294290847</v>
       </c>
       <c r="P34" t="n">
         <v>3.716566091281539</v>
@@ -33605,13 +33605,13 @@
         <v>1.381699931409989</v>
       </c>
       <c r="S34" t="n">
-        <v>0.5355274501643649</v>
+        <v>0.535527450164365</v>
       </c>
       <c r="T34" t="n">
         <v>0.1312978098994531</v>
       </c>
       <c r="U34" t="n">
-        <v>0.001676142254035573</v>
+        <v>0.001676142254035574</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,19 +33648,19 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.06850564656359785</v>
+        <v>0.06850564656359787</v>
       </c>
       <c r="H35" t="n">
-        <v>0.7015834528694467</v>
+        <v>0.7015834528694468</v>
       </c>
       <c r="I35" t="n">
         <v>2.641063939143109</v>
       </c>
       <c r="J35" t="n">
-        <v>5.814331120027168</v>
+        <v>5.81433112002717</v>
       </c>
       <c r="K35" t="n">
-        <v>8.714175139064267</v>
+        <v>8.714175139064269</v>
       </c>
       <c r="L35" t="n">
         <v>10.81070482008498</v>
@@ -33675,13 +33675,13 @@
         <v>11.54243075744241</v>
       </c>
       <c r="P35" t="n">
-        <v>9.851197607903583</v>
+        <v>9.851197607903584</v>
       </c>
       <c r="Q35" t="n">
-        <v>7.397839140344732</v>
+        <v>7.397839140344733</v>
       </c>
       <c r="R35" t="n">
-        <v>4.303267820950607</v>
+        <v>4.303267820950608</v>
       </c>
       <c r="S35" t="n">
         <v>1.561072421067988</v>
@@ -33690,7 +33690,7 @@
         <v>0.2998834678321498</v>
       </c>
       <c r="U35" t="n">
-        <v>0.005480451725087826</v>
+        <v>0.005480451725087827</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.03665375230994769</v>
+        <v>0.0366537523099477</v>
       </c>
       <c r="H36" t="n">
-        <v>0.353998081519758</v>
+        <v>0.3539980815197581</v>
       </c>
       <c r="I36" t="n">
         <v>1.261982261548638</v>
       </c>
       <c r="J36" t="n">
-        <v>3.462975782932383</v>
+        <v>3.462975782932384</v>
       </c>
       <c r="K36" t="n">
-        <v>5.918777187698877</v>
+        <v>5.918777187698879</v>
       </c>
       <c r="L36" t="n">
-        <v>7.95852635133316</v>
+        <v>7.958526351333162</v>
       </c>
       <c r="M36" t="n">
-        <v>9.287224872568762</v>
+        <v>9.287224872568764</v>
       </c>
       <c r="N36" t="n">
-        <v>9.533030079945561</v>
+        <v>9.533030079945563</v>
       </c>
       <c r="O36" t="n">
-        <v>8.720860094551456</v>
+        <v>8.720860094551458</v>
       </c>
       <c r="P36" t="n">
-        <v>6.99925907048466</v>
+        <v>6.999259070484662</v>
       </c>
       <c r="Q36" t="n">
-        <v>4.678819329950516</v>
+        <v>4.678819329950517</v>
       </c>
       <c r="R36" t="n">
         <v>2.275747884647455</v>
       </c>
       <c r="S36" t="n">
-        <v>0.6808273729501244</v>
+        <v>0.6808273729501245</v>
       </c>
       <c r="T36" t="n">
         <v>0.1477403437405347</v>
       </c>
       <c r="U36" t="n">
-        <v>0.002411431073022875</v>
+        <v>0.002411431073022876</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,28 +33809,28 @@
         <v>0.03072927465731881</v>
       </c>
       <c r="H37" t="n">
-        <v>0.2732111874077983</v>
+        <v>0.2732111874077984</v>
       </c>
       <c r="I37" t="n">
-        <v>0.9241130960582786</v>
+        <v>0.9241130960582788</v>
       </c>
       <c r="J37" t="n">
-        <v>2.172559718272439</v>
+        <v>2.17255971827244</v>
       </c>
       <c r="K37" t="n">
-        <v>3.570183001095766</v>
+        <v>3.570183001095767</v>
       </c>
       <c r="L37" t="n">
-        <v>4.568605070416289</v>
+        <v>4.56860507041629</v>
       </c>
       <c r="M37" t="n">
-        <v>4.816953481055892</v>
+        <v>4.816953481055894</v>
       </c>
       <c r="N37" t="n">
-        <v>4.702417093696798</v>
+        <v>4.702417093696799</v>
       </c>
       <c r="O37" t="n">
-        <v>4.343443294290846</v>
+        <v>4.343443294290847</v>
       </c>
       <c r="P37" t="n">
         <v>3.716566091281539</v>
@@ -33842,13 +33842,13 @@
         <v>1.381699931409989</v>
       </c>
       <c r="S37" t="n">
-        <v>0.5355274501643649</v>
+        <v>0.535527450164365</v>
       </c>
       <c r="T37" t="n">
         <v>0.1312978098994531</v>
       </c>
       <c r="U37" t="n">
-        <v>0.001676142254035573</v>
+        <v>0.001676142254035574</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,19 +33885,19 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.06850564656359785</v>
+        <v>0.06850564656359787</v>
       </c>
       <c r="H38" t="n">
-        <v>0.7015834528694467</v>
+        <v>0.7015834528694468</v>
       </c>
       <c r="I38" t="n">
         <v>2.641063939143109</v>
       </c>
       <c r="J38" t="n">
-        <v>5.814331120027168</v>
+        <v>5.81433112002717</v>
       </c>
       <c r="K38" t="n">
-        <v>8.714175139064267</v>
+        <v>8.714175139064269</v>
       </c>
       <c r="L38" t="n">
         <v>10.81070482008498</v>
@@ -33912,13 +33912,13 @@
         <v>11.54243075744241</v>
       </c>
       <c r="P38" t="n">
-        <v>9.851197607903583</v>
+        <v>9.851197607903584</v>
       </c>
       <c r="Q38" t="n">
-        <v>7.397839140344732</v>
+        <v>7.397839140344733</v>
       </c>
       <c r="R38" t="n">
-        <v>4.303267820950607</v>
+        <v>4.303267820950608</v>
       </c>
       <c r="S38" t="n">
         <v>1.561072421067988</v>
@@ -33927,7 +33927,7 @@
         <v>0.2998834678321498</v>
       </c>
       <c r="U38" t="n">
-        <v>0.005480451725087826</v>
+        <v>0.005480451725087827</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03665375230994769</v>
+        <v>0.0366537523099477</v>
       </c>
       <c r="H39" t="n">
-        <v>0.353998081519758</v>
+        <v>0.3539980815197581</v>
       </c>
       <c r="I39" t="n">
         <v>1.261982261548638</v>
       </c>
       <c r="J39" t="n">
-        <v>3.462975782932383</v>
+        <v>3.462975782932384</v>
       </c>
       <c r="K39" t="n">
-        <v>5.918777187698877</v>
+        <v>5.918777187698879</v>
       </c>
       <c r="L39" t="n">
-        <v>7.95852635133316</v>
+        <v>7.958526351333162</v>
       </c>
       <c r="M39" t="n">
-        <v>9.287224872568762</v>
+        <v>9.287224872568764</v>
       </c>
       <c r="N39" t="n">
-        <v>9.533030079945561</v>
+        <v>9.533030079945563</v>
       </c>
       <c r="O39" t="n">
-        <v>8.720860094551456</v>
+        <v>8.720860094551458</v>
       </c>
       <c r="P39" t="n">
-        <v>6.99925907048466</v>
+        <v>6.999259070484662</v>
       </c>
       <c r="Q39" t="n">
-        <v>4.678819329950516</v>
+        <v>4.678819329950517</v>
       </c>
       <c r="R39" t="n">
         <v>2.275747884647455</v>
       </c>
       <c r="S39" t="n">
-        <v>0.6808273729501244</v>
+        <v>0.6808273729501245</v>
       </c>
       <c r="T39" t="n">
         <v>0.1477403437405347</v>
       </c>
       <c r="U39" t="n">
-        <v>0.002411431073022875</v>
+        <v>0.002411431073022876</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,28 +34046,28 @@
         <v>0.03072927465731881</v>
       </c>
       <c r="H40" t="n">
-        <v>0.2732111874077983</v>
+        <v>0.2732111874077984</v>
       </c>
       <c r="I40" t="n">
-        <v>0.9241130960582786</v>
+        <v>0.9241130960582788</v>
       </c>
       <c r="J40" t="n">
-        <v>2.172559718272439</v>
+        <v>2.17255971827244</v>
       </c>
       <c r="K40" t="n">
-        <v>3.570183001095766</v>
+        <v>3.570183001095767</v>
       </c>
       <c r="L40" t="n">
-        <v>4.568605070416289</v>
+        <v>4.56860507041629</v>
       </c>
       <c r="M40" t="n">
-        <v>4.816953481055892</v>
+        <v>4.816953481055894</v>
       </c>
       <c r="N40" t="n">
-        <v>4.702417093696798</v>
+        <v>4.702417093696799</v>
       </c>
       <c r="O40" t="n">
-        <v>4.343443294290846</v>
+        <v>4.343443294290847</v>
       </c>
       <c r="P40" t="n">
         <v>3.716566091281539</v>
@@ -34079,13 +34079,13 @@
         <v>1.381699931409989</v>
       </c>
       <c r="S40" t="n">
-        <v>0.5355274501643649</v>
+        <v>0.535527450164365</v>
       </c>
       <c r="T40" t="n">
         <v>0.1312978098994531</v>
       </c>
       <c r="U40" t="n">
-        <v>0.001676142254035573</v>
+        <v>0.001676142254035574</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,19 +34122,19 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.06850564656359785</v>
+        <v>0.06850564656359787</v>
       </c>
       <c r="H41" t="n">
-        <v>0.7015834528694467</v>
+        <v>0.7015834528694468</v>
       </c>
       <c r="I41" t="n">
         <v>2.641063939143109</v>
       </c>
       <c r="J41" t="n">
-        <v>5.814331120027168</v>
+        <v>5.81433112002717</v>
       </c>
       <c r="K41" t="n">
-        <v>8.714175139064267</v>
+        <v>8.714175139064269</v>
       </c>
       <c r="L41" t="n">
         <v>10.81070482008498</v>
@@ -34149,13 +34149,13 @@
         <v>11.54243075744241</v>
       </c>
       <c r="P41" t="n">
-        <v>9.851197607903583</v>
+        <v>9.851197607903584</v>
       </c>
       <c r="Q41" t="n">
-        <v>7.397839140344732</v>
+        <v>7.397839140344733</v>
       </c>
       <c r="R41" t="n">
-        <v>4.303267820950607</v>
+        <v>4.303267820950608</v>
       </c>
       <c r="S41" t="n">
         <v>1.561072421067988</v>
@@ -34164,7 +34164,7 @@
         <v>0.2998834678321498</v>
       </c>
       <c r="U41" t="n">
-        <v>0.005480451725087826</v>
+        <v>0.005480451725087827</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03665375230994769</v>
+        <v>0.0366537523099477</v>
       </c>
       <c r="H42" t="n">
-        <v>0.353998081519758</v>
+        <v>0.3539980815197581</v>
       </c>
       <c r="I42" t="n">
         <v>1.261982261548638</v>
       </c>
       <c r="J42" t="n">
-        <v>3.462975782932383</v>
+        <v>3.462975782932384</v>
       </c>
       <c r="K42" t="n">
-        <v>5.918777187698877</v>
+        <v>5.918777187698879</v>
       </c>
       <c r="L42" t="n">
-        <v>7.95852635133316</v>
+        <v>7.958526351333162</v>
       </c>
       <c r="M42" t="n">
-        <v>9.287224872568762</v>
+        <v>9.287224872568764</v>
       </c>
       <c r="N42" t="n">
-        <v>9.533030079945561</v>
+        <v>9.533030079945563</v>
       </c>
       <c r="O42" t="n">
-        <v>8.720860094551456</v>
+        <v>8.720860094551458</v>
       </c>
       <c r="P42" t="n">
-        <v>6.99925907048466</v>
+        <v>6.999259070484662</v>
       </c>
       <c r="Q42" t="n">
-        <v>4.678819329950516</v>
+        <v>4.678819329950517</v>
       </c>
       <c r="R42" t="n">
         <v>2.275747884647455</v>
       </c>
       <c r="S42" t="n">
-        <v>0.6808273729501244</v>
+        <v>0.6808273729501245</v>
       </c>
       <c r="T42" t="n">
         <v>0.1477403437405347</v>
       </c>
       <c r="U42" t="n">
-        <v>0.002411431073022875</v>
+        <v>0.002411431073022876</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,28 +34283,28 @@
         <v>0.03072927465731881</v>
       </c>
       <c r="H43" t="n">
-        <v>0.2732111874077983</v>
+        <v>0.2732111874077984</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9241130960582786</v>
+        <v>0.9241130960582788</v>
       </c>
       <c r="J43" t="n">
-        <v>2.172559718272439</v>
+        <v>2.17255971827244</v>
       </c>
       <c r="K43" t="n">
-        <v>3.570183001095766</v>
+        <v>3.570183001095767</v>
       </c>
       <c r="L43" t="n">
-        <v>4.568605070416289</v>
+        <v>4.56860507041629</v>
       </c>
       <c r="M43" t="n">
-        <v>4.816953481055892</v>
+        <v>4.816953481055894</v>
       </c>
       <c r="N43" t="n">
-        <v>4.702417093696798</v>
+        <v>4.702417093696799</v>
       </c>
       <c r="O43" t="n">
-        <v>4.343443294290846</v>
+        <v>4.343443294290847</v>
       </c>
       <c r="P43" t="n">
         <v>3.716566091281539</v>
@@ -34316,13 +34316,13 @@
         <v>1.381699931409989</v>
       </c>
       <c r="S43" t="n">
-        <v>0.5355274501643649</v>
+        <v>0.535527450164365</v>
       </c>
       <c r="T43" t="n">
         <v>0.1312978098994531</v>
       </c>
       <c r="U43" t="n">
-        <v>0.001676142254035573</v>
+        <v>0.001676142254035574</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,19 +34359,19 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.06850564656359785</v>
+        <v>0.06850564656359787</v>
       </c>
       <c r="H44" t="n">
-        <v>0.7015834528694467</v>
+        <v>0.7015834528694468</v>
       </c>
       <c r="I44" t="n">
         <v>2.641063939143109</v>
       </c>
       <c r="J44" t="n">
-        <v>5.814331120027168</v>
+        <v>5.81433112002717</v>
       </c>
       <c r="K44" t="n">
-        <v>8.714175139064267</v>
+        <v>8.714175139064269</v>
       </c>
       <c r="L44" t="n">
         <v>10.81070482008498</v>
@@ -34386,13 +34386,13 @@
         <v>11.54243075744241</v>
       </c>
       <c r="P44" t="n">
-        <v>9.851197607903583</v>
+        <v>9.851197607903584</v>
       </c>
       <c r="Q44" t="n">
-        <v>7.397839140344732</v>
+        <v>7.397839140344733</v>
       </c>
       <c r="R44" t="n">
-        <v>4.303267820950607</v>
+        <v>4.303267820950608</v>
       </c>
       <c r="S44" t="n">
         <v>1.561072421067988</v>
@@ -34401,7 +34401,7 @@
         <v>0.2998834678321498</v>
       </c>
       <c r="U44" t="n">
-        <v>0.005480451725087826</v>
+        <v>0.005480451725087827</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03665375230994769</v>
+        <v>0.0366537523099477</v>
       </c>
       <c r="H45" t="n">
-        <v>0.353998081519758</v>
+        <v>0.3539980815197581</v>
       </c>
       <c r="I45" t="n">
         <v>1.261982261548638</v>
       </c>
       <c r="J45" t="n">
-        <v>3.462975782932383</v>
+        <v>3.462975782932384</v>
       </c>
       <c r="K45" t="n">
-        <v>5.918777187698877</v>
+        <v>5.918777187698879</v>
       </c>
       <c r="L45" t="n">
-        <v>7.95852635133316</v>
+        <v>7.958526351333162</v>
       </c>
       <c r="M45" t="n">
-        <v>9.287224872568762</v>
+        <v>9.287224872568764</v>
       </c>
       <c r="N45" t="n">
-        <v>9.533030079945561</v>
+        <v>9.533030079945563</v>
       </c>
       <c r="O45" t="n">
-        <v>8.720860094551456</v>
+        <v>8.720860094551458</v>
       </c>
       <c r="P45" t="n">
-        <v>6.99925907048466</v>
+        <v>6.999259070484662</v>
       </c>
       <c r="Q45" t="n">
-        <v>4.678819329950516</v>
+        <v>4.678819329950517</v>
       </c>
       <c r="R45" t="n">
         <v>2.275747884647455</v>
       </c>
       <c r="S45" t="n">
-        <v>0.6808273729501244</v>
+        <v>0.6808273729501245</v>
       </c>
       <c r="T45" t="n">
         <v>0.1477403437405347</v>
       </c>
       <c r="U45" t="n">
-        <v>0.002411431073022875</v>
+        <v>0.002411431073022876</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,28 +34520,28 @@
         <v>0.03072927465731881</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2732111874077983</v>
+        <v>0.2732111874077984</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9241130960582786</v>
+        <v>0.9241130960582788</v>
       </c>
       <c r="J46" t="n">
-        <v>2.172559718272439</v>
+        <v>2.17255971827244</v>
       </c>
       <c r="K46" t="n">
-        <v>3.570183001095766</v>
+        <v>3.570183001095767</v>
       </c>
       <c r="L46" t="n">
-        <v>4.568605070416289</v>
+        <v>4.56860507041629</v>
       </c>
       <c r="M46" t="n">
-        <v>4.816953481055892</v>
+        <v>4.816953481055894</v>
       </c>
       <c r="N46" t="n">
-        <v>4.702417093696798</v>
+        <v>4.702417093696799</v>
       </c>
       <c r="O46" t="n">
-        <v>4.343443294290846</v>
+        <v>4.343443294290847</v>
       </c>
       <c r="P46" t="n">
         <v>3.716566091281539</v>
@@ -34553,13 +34553,13 @@
         <v>1.381699931409989</v>
       </c>
       <c r="S46" t="n">
-        <v>0.5355274501643649</v>
+        <v>0.535527450164365</v>
       </c>
       <c r="T46" t="n">
         <v>0.1312978098994531</v>
       </c>
       <c r="U46" t="n">
-        <v>0.001676142254035573</v>
+        <v>0.001676142254035574</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
-        <v>442.7574853255731</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N2" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>442.7574853255731</v>
       </c>
       <c r="P2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>160.7937153846611</v>
+      </c>
+      <c r="O3" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="O3" t="n">
-        <v>160.7937153846612</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34868,7 +34868,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>381.3045564404402</v>
+        <v>364.842669417354</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -34877,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>111.8210728160673</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="N5" t="n">
-        <v>443.4649875463285</v>
-      </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>324.0137127175907</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35023,19 +35023,19 @@
         <v>461.3999057603342</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N6" t="n">
-        <v>435.2356237478844</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>435.2356237478845</v>
       </c>
       <c r="P6" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="Q6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,19 +35096,19 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>211.6076016844843</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
         <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>381.3045564404402</v>
+        <v>364.842669417354</v>
       </c>
       <c r="O7" t="n">
-        <v>359.0183117977405</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>293.5345574968697</v>
@@ -35172,16 +35172,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35190,10 +35190,10 @@
         <v>461.3999057603342</v>
       </c>
       <c r="P8" t="n">
-        <v>324.0137127175907</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>419.1474984608589</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35248,25 +35248,25 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L9" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="M9" t="n">
-        <v>85.46778899800287</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35336,10 +35336,10 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
-        <v>395.137166636617</v>
+        <v>19.65696781579008</v>
       </c>
       <c r="N10" t="n">
         <v>381.3045564404402</v>
@@ -35351,7 +35351,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>111.0748027298631</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35418,10 +35418,10 @@
         <v>949.825904435516</v>
       </c>
       <c r="M11" t="n">
-        <v>1026.459397585957</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>946.1277409082381</v>
       </c>
       <c r="O11" t="n">
         <v>865.2238955562425</v>
@@ -35430,10 +35430,10 @@
         <v>725.2848129189416</v>
       </c>
       <c r="Q11" t="n">
-        <v>264.7115455732734</v>
+        <v>468.0902426799236</v>
       </c>
       <c r="R11" t="n">
-        <v>123.047040428933</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>8.783843839237367</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>277.9048841461557</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>602.3681979637995</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>378.0176714266632</v>
       </c>
       <c r="M12" t="n">
-        <v>1075.94029353524</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>191.1343038406153</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>473.5126343428589</v>
@@ -35649,16 +35649,16 @@
         <v>372.0804511370933</v>
       </c>
       <c r="K14" t="n">
-        <v>602.6082734485235</v>
+        <v>731.4498397607805</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>949.825904435516</v>
       </c>
       <c r="M14" t="n">
-        <v>1026.459397585957</v>
+        <v>823.0807004793052</v>
       </c>
       <c r="N14" t="n">
-        <v>998.335814070056</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>865.2238955562425</v>
@@ -35670,7 +35670,7 @@
         <v>468.0902426799236</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>123.047040428933</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>8.783843839237367</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>277.9048841461557</v>
       </c>
       <c r="K15" t="n">
         <v>602.3681979637995</v>
@@ -35737,19 +35737,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1109.851157830319</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>113.49141177359</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>378.0176714266632</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>473.5126343428589</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>85.12353584899402</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>949.825904435516</v>
       </c>
       <c r="M17" t="n">
-        <v>550.0296993281926</v>
+        <v>1026.459397585957</v>
       </c>
       <c r="N17" t="n">
         <v>998.335814070056</v>
@@ -35901,13 +35901,13 @@
         <v>865.2238955562425</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>114.7075848510901</v>
       </c>
       <c r="Q17" t="n">
-        <v>468.0902426799236</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>123.047040428933</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>8.783843839237367</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>277.9048841461557</v>
       </c>
       <c r="K18" t="n">
         <v>602.3681979637995</v>
       </c>
       <c r="L18" t="n">
-        <v>853.209847647198</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>378.0176714266632</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>370.1327219567112</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>473.5126343428589</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>85.12353584899402</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>120.1918443959036</v>
+        <v>372.0804511370933</v>
       </c>
       <c r="K20" t="n">
         <v>731.4498397607805</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>949.825904435516</v>
       </c>
       <c r="M20" t="n">
-        <v>1026.459397585957</v>
+        <v>946.1277409082381</v>
       </c>
       <c r="N20" t="n">
-        <v>998.335814070056</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>865.2238955562425</v>
@@ -36144,7 +36144,7 @@
         <v>468.0902426799236</v>
       </c>
       <c r="R20" t="n">
-        <v>123.047040428933</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>8.783843839237367</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>277.9048841461557</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>602.3681979637995</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1075.94029353524</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>655.8630943442369</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>378.0176714266632</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>473.5126343428589</v>
       </c>
       <c r="R21" t="n">
         <v>85.12353584899402</v>
@@ -36360,13 +36360,13 @@
         <v>372.0804511370933</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>731.4498397607805</v>
       </c>
       <c r="L23" t="n">
-        <v>479.5612330195907</v>
+        <v>774.570790844765</v>
       </c>
       <c r="M23" t="n">
-        <v>1026.459397585957</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>998.335814070056</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>8.783843839237367</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>277.9048841461557</v>
       </c>
       <c r="K24" t="n">
-        <v>536.6433008927469</v>
+        <v>602.3681979637995</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36454,7 +36454,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>730.4312964831089</v>
+        <v>378.0176714266632</v>
       </c>
       <c r="Q24" t="n">
         <v>473.5126343428589</v>
@@ -36597,16 +36597,16 @@
         <v>372.0804511370933</v>
       </c>
       <c r="K26" t="n">
-        <v>731.4498397607805</v>
+        <v>651.1181830830636</v>
       </c>
       <c r="L26" t="n">
-        <v>774.5707908447669</v>
+        <v>949.825904435516</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1026.459397585957</v>
       </c>
       <c r="N26" t="n">
-        <v>998.335814070056</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>865.2238955562425</v>
@@ -36618,7 +36618,7 @@
         <v>468.0902426799236</v>
       </c>
       <c r="R26" t="n">
-        <v>123.047040428933</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>8.783843839237367</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>277.9048841461557</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>602.3681979637995</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>621.7668367417408</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>730.4312964831089</v>
+        <v>378.0176714266632</v>
       </c>
       <c r="Q27" t="n">
         <v>473.5126343428589</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>85.12353584899402</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>319.8723779752762</v>
       </c>
       <c r="K29" t="n">
         <v>731.4498397607805</v>
       </c>
       <c r="L29" t="n">
-        <v>120.1918443959036</v>
+        <v>949.825904435516</v>
       </c>
       <c r="M29" t="n">
-        <v>1026.459397585957</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>998.335814070056</v>
@@ -36855,7 +36855,7 @@
         <v>468.0902426799236</v>
       </c>
       <c r="R29" t="n">
-        <v>123.047040428933</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>8.783843839237367</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>277.9048841461557</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>602.3681979637995</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>378.0176714266632</v>
       </c>
       <c r="M30" t="n">
-        <v>1075.94029353524</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>191.1343038406153</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37071,25 +37071,25 @@
         <v>372.0804511370933</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>731.4498397607805</v>
       </c>
       <c r="L32" t="n">
-        <v>949.825904435516</v>
+        <v>746.4472073288654</v>
       </c>
       <c r="M32" t="n">
         <v>1026.459397585957</v>
       </c>
       <c r="N32" t="n">
-        <v>998.335814070056</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>863.0494668202408</v>
+        <v>865.2238955562425</v>
       </c>
       <c r="P32" t="n">
         <v>725.2848129189416</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>468.0902426799236</v>
       </c>
       <c r="R32" t="n">
         <v>123.047040428933</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>8.783843839237367</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>277.9048841461557</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>602.3681979637995</v>
       </c>
       <c r="L33" t="n">
-        <v>715.8596097373895</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1109.851157830319</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>378.0176714266632</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>473.5126343428589</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>85.12353584899402</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37311,10 +37311,10 @@
         <v>731.4498397607805</v>
       </c>
       <c r="L35" t="n">
-        <v>774.5707908447669</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>897.6178312736989</v>
       </c>
       <c r="N35" t="n">
         <v>998.335814070056</v>
@@ -37329,7 +37329,7 @@
         <v>468.0902426799236</v>
       </c>
       <c r="R35" t="n">
-        <v>123.047040428933</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>8.783843839237367</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>277.9048841461557</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>602.3681979637995</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>378.0176714266632</v>
       </c>
       <c r="M36" t="n">
-        <v>1075.94029353524</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>276.2578396896093</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>473.5126343428589</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>85.12353584899402</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>8.783843839237367</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>277.9048841461557</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>602.3681979637995</v>
       </c>
       <c r="L39" t="n">
-        <v>833.4004342388382</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37636,13 +37636,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>907.1867974798763</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>378.0176714266632</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>473.5126343428589</v>
       </c>
       <c r="R39" t="n">
         <v>85.12353584899402</v>
@@ -37788,19 +37788,19 @@
         <v>949.825904435516</v>
       </c>
       <c r="M41" t="n">
-        <v>1026.459397585957</v>
+        <v>823.0807004793061</v>
       </c>
       <c r="N41" t="n">
-        <v>998.335814070056</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>131.5996270594593</v>
+        <v>865.2238955562425</v>
       </c>
       <c r="P41" t="n">
         <v>725.2848129189416</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>468.0902426799236</v>
       </c>
       <c r="R41" t="n">
         <v>123.047040428933</v>
@@ -37858,16 +37858,16 @@
         <v>8.783843839237367</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>277.9048841461557</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>602.3681979637995</v>
       </c>
       <c r="L42" t="n">
-        <v>853.209847647198</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>405.0809058894204</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>378.0176714266632</v>
       </c>
       <c r="Q42" t="n">
         <v>473.5126343428589</v>
@@ -38019,16 +38019,16 @@
         <v>372.0804511370933</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>731.4498397607805</v>
       </c>
       <c r="L44" t="n">
         <v>949.825904435516</v>
       </c>
       <c r="M44" t="n">
-        <v>1026.459397585957</v>
+        <v>823.0807004793061</v>
       </c>
       <c r="N44" t="n">
-        <v>651.1181830830629</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>865.2238955562425</v>
@@ -38040,7 +38040,7 @@
         <v>468.0902426799236</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>123.047040428933</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>8.783843839237367</v>
       </c>
       <c r="J45" t="n">
         <v>277.9048841461557</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>602.3681979637995</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38107,16 +38107,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1109.851157830319</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>378.0176714266632</v>
       </c>
       <c r="Q45" t="n">
-        <v>352.8311897422394</v>
+        <v>473.5126343428589</v>
       </c>
       <c r="R45" t="n">
         <v>85.12353584899402</v>
